--- a/PAYROLL/Reprise de données/4.1 Addendum A/Reprise des données Payroll 4.1 A Descriptif_V1.0.xlsx
+++ b/PAYROLL/Reprise de données/4.1 Addendum A/Reprise des données Payroll 4.1 A Descriptif_V1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifflart.SRVNTLY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifflart.SRVNTLY\Documents\GitHub\dev\PAYROLL\Reprise de données\4.1 Addendum A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="300" windowWidth="24240" windowHeight="6492" tabRatio="743" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="300" windowWidth="24240" windowHeight="6492" tabRatio="743" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="REP" sheetId="32" r:id="rId1"/>
@@ -3601,9 +3601,6 @@
     <t>Concernant l'alimentation des coordonnées bancaires : Ces données sont obligatoires uniquement si la personne est payée par virement.  Les données RIB et IBAN doivent-être alimentés.                                                   Dans le cas ou la personne n'est pas payée par virement aucun de ces champs ne doivent-être renseignés.</t>
   </si>
   <si>
-    <t>'O' sur la situation en cours du salarié</t>
-  </si>
-  <si>
     <t>Ne concerne que les paies hors échéance</t>
   </si>
   <si>
@@ -4592,6 +4589,9 @@
   </si>
   <si>
     <t>A alimenter dans le cas ou la paie fait référence à une période d'emploi fermé</t>
+  </si>
+  <si>
+    <t>'O' sur la situation en cours du salarié si possible sinon mettre par défaut "N"</t>
   </si>
 </sst>
 </file>
@@ -5585,7 +5585,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5639,11 +5639,18 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5944,9 +5951,6 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6136,11 +6140,11 @@
     <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6175,8 +6179,11 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="50" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="51">
     <cellStyle name="20 % - Accent1" xfId="2" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="3" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="4" builtinId="38" customBuiltin="1"/>
@@ -6206,14 +6213,18 @@
     <cellStyle name="Cellule liée" xfId="28" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Commentaire" xfId="29" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Commentaire 2" xfId="30"/>
+    <cellStyle name="Commentaire 2 2" xfId="48"/>
     <cellStyle name="Entrée" xfId="31" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="32" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="33" builtinId="8"/>
     <cellStyle name="Lien hypertexte 2" xfId="34"/>
+    <cellStyle name="Lien hypertexte 2 2" xfId="49"/>
     <cellStyle name="Neutre" xfId="35" builtinId="28" customBuiltin="1"/>
     <cellStyle name="NiveauLigne_1" xfId="1" builtinId="1" iLevel="0"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="36"/>
+    <cellStyle name="Normal 2 2" xfId="50"/>
+    <cellStyle name="Normal 3" xfId="47"/>
     <cellStyle name="Satisfaisant" xfId="37" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="38" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="39" builtinId="53" customBuiltin="1"/>
@@ -6599,12 +6610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="185"/>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
@@ -6697,86 +6708,86 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="184" t="s">
         <v>868</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
+      <c r="A16" s="184"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
+      <c r="A17" s="184"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="186"/>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="186"/>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
+      <c r="A20" s="184"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="186"/>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
+      <c r="A21" s="184"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="186"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
+      <c r="A22" s="184"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="186"/>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
+      <c r="A23" s="184"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="186"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
+      <c r="A24" s="184"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
@@ -6840,18 +6851,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="K1" s="133" t="s">
-        <v>974</v>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="K1" s="132" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -6897,7 +6908,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="57" t="s">
@@ -6923,7 +6934,7 @@
       <c r="A5" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -6951,7 +6962,7 @@
       <c r="A6" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -6974,7 +6985,7 @@
       <c r="A7" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>261</v>
       </c>
       <c r="C7" s="57" t="s">
@@ -6997,7 +7008,7 @@
       <c r="A8" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="131" t="s">
         <v>619</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -7017,15 +7028,15 @@
         <v>835</v>
       </c>
       <c r="I8" s="21"/>
-      <c r="K8" s="152" t="s">
-        <v>1027</v>
+      <c r="K8" s="151" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="131" t="s">
         <v>621</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -7045,15 +7056,15 @@
         <v>835</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="K9" s="153" t="s">
-        <v>1028</v>
+      <c r="K9" s="152" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="134" t="s">
         <v>630</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -7361,18 +7372,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="K1" s="133" t="s">
-        <v>974</v>
+      <c r="A1" s="185" t="s">
+        <v>970</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="K1" s="132" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -7418,7 +7429,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -7444,7 +7455,7 @@
       <c r="A5" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -7470,7 +7481,7 @@
       <c r="A6" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -7493,7 +7504,7 @@
       <c r="A7" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>261</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -7516,7 +7527,7 @@
       <c r="A8" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="131" t="s">
         <v>619</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -7536,15 +7547,15 @@
         <v>898</v>
       </c>
       <c r="I8" s="24"/>
-      <c r="K8" s="152" t="s">
-        <v>1027</v>
+      <c r="K8" s="151" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="131" t="s">
         <v>621</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -7564,8 +7575,8 @@
         <v>899</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="K9" s="154" t="s">
-        <v>1028</v>
+      <c r="K9" s="153" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -7590,7 +7601,7 @@
         <v>835</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="K10" s="153"/>
+      <c r="K10" s="152"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
@@ -7641,7 +7652,7 @@
         <v>900</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -7693,7 +7704,7 @@
         <v>902</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -7730,18 +7741,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>751</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="K1" s="133" t="s">
-        <v>974</v>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="K1" s="132" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -7787,7 +7798,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -7805,15 +7816,15 @@
         <v>820</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="K4" s="155" t="s">
-        <v>1029</v>
+      <c r="K4" s="154" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -7831,15 +7842,15 @@
         <v>830</v>
       </c>
       <c r="I5" s="24"/>
-      <c r="K5" s="156" t="s">
-        <v>1030</v>
+      <c r="K5" s="155" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -7862,7 +7873,7 @@
       <c r="A7" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>261</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -7885,7 +7896,7 @@
       <c r="A8" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="131" t="s">
         <v>619</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -7910,7 +7921,7 @@
       <c r="A9" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="131" t="s">
         <v>621</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -8154,18 +8165,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>743</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="K1" s="133" t="s">
-        <v>975</v>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="K1" s="132" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -8211,7 +8222,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -8229,15 +8240,15 @@
         <v>820</v>
       </c>
       <c r="I4" s="54"/>
-      <c r="K4" s="128" t="s">
-        <v>1032</v>
+      <c r="K4" s="127" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -8255,15 +8266,15 @@
         <v>830</v>
       </c>
       <c r="I5" s="54"/>
-      <c r="K5" s="156" t="s">
-        <v>1031</v>
+      <c r="K5" s="155" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -8588,8 +8599,8 @@
       <c r="G21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="135" t="s">
-        <v>995</v>
+      <c r="H21" s="134" t="s">
+        <v>994</v>
       </c>
       <c r="I21" s="24"/>
     </row>
@@ -8692,18 +8703,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>744</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="K1" s="133" t="s">
-        <v>974</v>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="K1" s="132" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -8745,7 +8756,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -8764,14 +8775,14 @@
       </c>
       <c r="I4" s="54"/>
       <c r="K4" s="69" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -8799,7 +8810,7 @@
       <c r="A6" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -8822,7 +8833,7 @@
       <c r="A7" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>261</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -8847,7 +8858,7 @@
       <c r="A8" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="131" t="s">
         <v>602</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -8922,7 +8933,7 @@
       <c r="A11" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>613</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -9030,17 +9041,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="185" t="s">
         <v>794</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="K1" s="133" t="s">
-        <v>974</v>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="K1" s="132" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9076,18 +9087,18 @@
       <c r="A4" s="62" t="s">
         <v>777</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="110">
+      <c r="C4" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="109">
         <v>10</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H4" s="54" t="s">
@@ -9102,18 +9113,18 @@
       <c r="A5" s="62" t="s">
         <v>778</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="135" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="110">
+      <c r="C5" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="109">
         <v>3</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H5" s="54" t="s">
@@ -9130,18 +9141,18 @@
       <c r="A6" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="110">
+      <c r="C6" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="109">
         <v>10</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110" t="s">
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H6" s="54" t="s">
@@ -9153,18 +9164,18 @@
       <c r="A7" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="110">
+      <c r="C7" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="109">
         <v>10</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110" t="s">
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -9181,15 +9192,15 @@
       <c r="B8" s="62" t="s">
         <v>779</v>
       </c>
-      <c r="C8" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="110">
+      <c r="C8" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="109">
         <v>6</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109" t="s">
         <v>95</v>
       </c>
       <c r="H8" s="62" t="s">
@@ -9201,18 +9212,18 @@
       <c r="A9" s="62" t="s">
         <v>782</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="135" t="s">
         <v>495</v>
       </c>
-      <c r="C9" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="110">
+      <c r="C9" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="109">
         <v>10</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110" t="s">
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H9" s="62" t="s">
@@ -9224,18 +9235,18 @@
       <c r="A10" s="62" t="s">
         <v>783</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="135" t="s">
         <v>497</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="110">
+      <c r="C10" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="109">
         <v>10</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110" t="s">
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H10" s="62" t="s">
@@ -9247,18 +9258,18 @@
       <c r="A11" s="62" t="s">
         <v>784</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="135" t="s">
         <v>498</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="110">
+      <c r="C11" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="109">
         <v>10</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110" t="s">
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H11" s="62" t="s">
@@ -9270,18 +9281,18 @@
       <c r="A12" s="62" t="s">
         <v>785</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="135" t="s">
         <v>499</v>
       </c>
-      <c r="C12" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="110">
+      <c r="C12" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="109">
         <v>10</v>
       </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110" t="s">
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H12" s="62" t="s">
@@ -9293,18 +9304,18 @@
       <c r="A13" s="62" t="s">
         <v>786</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="135" t="s">
         <v>500</v>
       </c>
-      <c r="C13" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="110">
+      <c r="C13" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="109">
         <v>10</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110" t="s">
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H13" s="62" t="s">
@@ -9319,15 +9330,15 @@
       <c r="B14" s="62" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="110">
+      <c r="C14" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="109">
         <v>6</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110" t="s">
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109" t="s">
         <v>95</v>
       </c>
       <c r="H14" s="62" t="s">
@@ -9342,19 +9353,19 @@
       <c r="B15" s="62" t="s">
         <v>789</v>
       </c>
-      <c r="C15" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="110">
+      <c r="C15" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="109">
         <v>5.2</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="109">
         <v>3</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="109">
         <v>2</v>
       </c>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="109" t="s">
         <v>920</v>
       </c>
       <c r="H15" s="62" t="s">
@@ -9369,19 +9380,19 @@
       <c r="B16" s="62" t="s">
         <v>792</v>
       </c>
-      <c r="C16" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="110">
+      <c r="C16" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="109">
         <v>5.2</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="109">
         <v>3</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="109">
         <v>2</v>
       </c>
-      <c r="G16" s="110" t="s">
+      <c r="G16" s="109" t="s">
         <v>95</v>
       </c>
       <c r="H16" s="62" t="s">
@@ -9424,18 +9435,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>839</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="K1" s="133" t="s">
-        <v>974</v>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="K1" s="132" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -9481,7 +9492,7 @@
       <c r="A4" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -9507,7 +9518,7 @@
       <c r="A5" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -9533,7 +9544,7 @@
       <c r="A6" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -9556,7 +9567,7 @@
       <c r="A7" s="49" t="s">
         <v>711</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>712</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -9581,7 +9592,7 @@
       <c r="A8" s="49" t="s">
         <v>713</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="131" t="s">
         <v>714</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -9878,7 +9889,7 @@
       <c r="G19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="111" t="s">
+      <c r="H19" s="110" t="s">
         <v>837</v>
       </c>
       <c r="I19" s="102" t="s">
@@ -10051,8 +10062,8 @@
         <v>95</v>
       </c>
       <c r="H27" s="46"/>
-      <c r="I27" s="130" t="s">
-        <v>972</v>
+      <c r="I27" s="129" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
@@ -10122,819 +10133,819 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
+      <c r="A1" s="185" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="157" t="s">
         <v>836</v>
       </c>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="157" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D3" s="157" t="s">
         <v>1034</v>
       </c>
-      <c r="D3" s="158" t="s">
+      <c r="E3" s="157" t="s">
         <v>1035</v>
       </c>
-      <c r="E3" s="158" t="s">
+      <c r="F3" s="158" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="159" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="160" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B4" s="161" t="s">
         <v>1036</v>
       </c>
-      <c r="F3" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="160" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="C4" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="162">
+        <v>1</v>
+      </c>
+      <c r="E4" s="162">
+        <v>0</v>
+      </c>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="160" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B5" s="161" t="s">
         <v>1038</v>
       </c>
-      <c r="B4" s="162" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C4" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="163">
+      <c r="C5" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="162">
+        <v>3</v>
+      </c>
+      <c r="E5" s="162">
+        <v>0</v>
+      </c>
+      <c r="F5" s="163"/>
+      <c r="G5" s="165"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="160" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B6" s="161" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C6" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="162">
+        <v>4</v>
+      </c>
+      <c r="E6" s="162">
+        <v>0</v>
+      </c>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="161" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="162">
+        <v>3</v>
+      </c>
+      <c r="E7" s="162">
+        <v>0</v>
+      </c>
+      <c r="F7" s="163"/>
+      <c r="G7" s="165"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B8" s="161" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C8" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="162">
+        <v>7</v>
+      </c>
+      <c r="E8" s="162">
+        <v>3</v>
+      </c>
+      <c r="F8" s="166"/>
+      <c r="G8" s="164"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="160" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B9" s="161" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="162">
         <v>1</v>
       </c>
-      <c r="E4" s="163">
+      <c r="E9" s="162">
         <v>0</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="165"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="161" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B5" s="162" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C5" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="163">
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="160" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B10" s="161" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C10" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="162">
+        <v>5</v>
+      </c>
+      <c r="E10" s="162">
         <v>3</v>
       </c>
-      <c r="E5" s="163">
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="160" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C11" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="162">
+        <v>3</v>
+      </c>
+      <c r="E11" s="162">
+        <v>2</v>
+      </c>
+      <c r="F11" s="166"/>
+      <c r="G11" s="167"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="160" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C12" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="162">
+        <v>1</v>
+      </c>
+      <c r="E12" s="162">
         <v>0</v>
       </c>
-      <c r="F5" s="164"/>
-      <c r="G5" s="166"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="161" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B6" s="162" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C6" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="163">
+      <c r="F12" s="166"/>
+      <c r="G12" s="167"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="160" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B13" s="161" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C13" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="162">
+        <v>6</v>
+      </c>
+      <c r="E13" s="162">
+        <v>0</v>
+      </c>
+      <c r="F13" s="166"/>
+      <c r="G13" s="167"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="160" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="162">
+        <v>7</v>
+      </c>
+      <c r="E14" s="162">
+        <v>3</v>
+      </c>
+      <c r="F14" s="166"/>
+      <c r="G14" s="164"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="160" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B15" s="161" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C15" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="162">
+        <v>7</v>
+      </c>
+      <c r="E15" s="162">
+        <v>3</v>
+      </c>
+      <c r="F15" s="166"/>
+      <c r="G15" s="164"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="160" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B16" s="161" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="162">
         <v>4</v>
       </c>
-      <c r="E6" s="163">
+      <c r="E16" s="162">
+        <v>3</v>
+      </c>
+      <c r="F16" s="166"/>
+      <c r="G16" s="164"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="160" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B17" s="161" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="162">
+        <v>4</v>
+      </c>
+      <c r="E17" s="162">
+        <v>3</v>
+      </c>
+      <c r="F17" s="168"/>
+      <c r="G17" s="169"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="160" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B18" s="161" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="162">
+        <v>5</v>
+      </c>
+      <c r="E18" s="162">
+        <v>3</v>
+      </c>
+      <c r="F18" s="168"/>
+      <c r="G18" s="169"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="160" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B19" s="161" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="162">
+        <v>7</v>
+      </c>
+      <c r="E19" s="162">
+        <v>3</v>
+      </c>
+      <c r="F19" s="168"/>
+      <c r="G19" s="169"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="160" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B20" s="161" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="162">
+        <v>7</v>
+      </c>
+      <c r="E20" s="162">
+        <v>9</v>
+      </c>
+      <c r="F20" s="168"/>
+      <c r="G20" s="169"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="160" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B21" s="161" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C21" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="162">
+        <v>4</v>
+      </c>
+      <c r="E21" s="162">
+        <v>3</v>
+      </c>
+      <c r="F21" s="168"/>
+      <c r="G21" s="169"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="160" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B22" s="161" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C22" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="162">
+        <v>4</v>
+      </c>
+      <c r="E22" s="162">
+        <v>3</v>
+      </c>
+      <c r="F22" s="168"/>
+      <c r="G22" s="169"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="160" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B23" s="161" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C23" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="162">
+        <v>4</v>
+      </c>
+      <c r="E23" s="162">
+        <v>3</v>
+      </c>
+      <c r="F23" s="168"/>
+      <c r="G23" s="169"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="160" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B24" s="161" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C24" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="162">
+        <v>4</v>
+      </c>
+      <c r="E24" s="162">
+        <v>3</v>
+      </c>
+      <c r="F24" s="168"/>
+      <c r="G24" s="169"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="160" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B25" s="161" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C25" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="162">
+        <v>6</v>
+      </c>
+      <c r="E25" s="162">
+        <v>3</v>
+      </c>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="160" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B26" s="161" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C26" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="162">
+        <v>6</v>
+      </c>
+      <c r="E26" s="162">
+        <v>3</v>
+      </c>
+      <c r="F26" s="168"/>
+      <c r="G26" s="169"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="160" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B27" s="161" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C27" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="162">
+        <v>1</v>
+      </c>
+      <c r="E27" s="162">
         <v>0</v>
       </c>
-      <c r="F6" s="164"/>
-      <c r="G6" s="165"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="162" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="163">
+      <c r="F27" s="168"/>
+      <c r="G27" s="169"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="160" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B28" s="161" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C28" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="162">
+        <v>8</v>
+      </c>
+      <c r="E28" s="162">
+        <v>0</v>
+      </c>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="160" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B29" s="161" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C29" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="162">
+        <v>15</v>
+      </c>
+      <c r="E29" s="162">
+        <v>0</v>
+      </c>
+      <c r="F29" s="168"/>
+      <c r="G29" s="169"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="160" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B30" s="161" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C30" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="162">
+        <v>2</v>
+      </c>
+      <c r="E30" s="162">
+        <v>0</v>
+      </c>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="160" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B31" s="161" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C31" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="162">
         <v>3</v>
       </c>
-      <c r="E7" s="163">
+      <c r="E31" s="162">
+        <v>2</v>
+      </c>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="160" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B32" s="161" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C32" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="162">
+        <v>2</v>
+      </c>
+      <c r="E32" s="162">
         <v>0</v>
       </c>
-      <c r="F7" s="164"/>
-      <c r="G7" s="166"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="161" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B8" s="162" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C8" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="163">
-        <v>7</v>
-      </c>
-      <c r="E8" s="163">
+      <c r="F32" s="168"/>
+      <c r="G32" s="169"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="160" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B33" s="161" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C33" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="162">
         <v>3</v>
       </c>
-      <c r="F8" s="167"/>
-      <c r="G8" s="165"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="161" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B9" s="162" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C9" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="163">
+      <c r="E33" s="162">
+        <v>2</v>
+      </c>
+      <c r="F33" s="168"/>
+      <c r="G33" s="169"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="160" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B34" s="161" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C34" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="162">
+        <v>2</v>
+      </c>
+      <c r="E34" s="162">
+        <v>0</v>
+      </c>
+      <c r="F34" s="168"/>
+      <c r="G34" s="169"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="160" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B35" s="161" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C35" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="162">
+        <v>3</v>
+      </c>
+      <c r="E35" s="162">
+        <v>2</v>
+      </c>
+      <c r="F35" s="168"/>
+      <c r="G35" s="169"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="160" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B36" s="161" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C36" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="162">
+        <v>2</v>
+      </c>
+      <c r="E36" s="162">
+        <v>0</v>
+      </c>
+      <c r="F36" s="168"/>
+      <c r="G36" s="169"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="160" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B37" s="161" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C37" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="162">
+        <v>3</v>
+      </c>
+      <c r="E37" s="162">
+        <v>2</v>
+      </c>
+      <c r="F37" s="168"/>
+      <c r="G37" s="169"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="160" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B38" s="161" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C38" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="162">
+        <v>2</v>
+      </c>
+      <c r="E38" s="162">
+        <v>0</v>
+      </c>
+      <c r="F38" s="168"/>
+      <c r="G38" s="169"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="160" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B39" s="161" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C39" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="162">
+        <v>3</v>
+      </c>
+      <c r="E39" s="162">
+        <v>2</v>
+      </c>
+      <c r="F39" s="168"/>
+      <c r="G39" s="169"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="160" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B40" s="161" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C40" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="162">
         <v>1</v>
       </c>
-      <c r="E9" s="163">
+      <c r="E40" s="162">
         <v>0</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="168"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B10" s="162" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C10" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="163">
+      <c r="F40" s="168"/>
+      <c r="G40" s="169"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="160" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B41" s="161" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C41" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="162">
+        <v>1</v>
+      </c>
+      <c r="E41" s="162">
+        <v>0</v>
+      </c>
+      <c r="F41" s="168"/>
+      <c r="G41" s="169"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="160" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B42" s="161" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C42" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="162">
+        <v>8</v>
+      </c>
+      <c r="E42" s="162">
+        <v>0</v>
+      </c>
+      <c r="F42" s="168"/>
+      <c r="G42" s="169"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="160" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B43" s="161" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C43" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="162">
         <v>5</v>
       </c>
-      <c r="E10" s="163">
-        <v>3</v>
-      </c>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="161" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B11" s="162" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C11" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="163">
-        <v>3</v>
-      </c>
-      <c r="E11" s="163">
-        <v>2</v>
-      </c>
-      <c r="F11" s="167"/>
-      <c r="G11" s="168"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="161" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B12" s="162" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C12" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="163">
-        <v>1</v>
-      </c>
-      <c r="E12" s="163">
+      <c r="E43" s="162">
+        <v>6</v>
+      </c>
+      <c r="F43" s="168"/>
+      <c r="G43" s="169"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="170" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B44" s="171" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C44" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="172">
+        <v>512</v>
+      </c>
+      <c r="E44" s="172">
         <v>0</v>
       </c>
-      <c r="F12" s="167"/>
-      <c r="G12" s="168"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="161" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B13" s="162" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C13" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="163">
-        <v>6</v>
-      </c>
-      <c r="E13" s="163">
-        <v>0</v>
-      </c>
-      <c r="F13" s="167"/>
-      <c r="G13" s="168"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="161" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B14" s="162" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C14" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="163">
-        <v>7</v>
-      </c>
-      <c r="E14" s="163">
-        <v>3</v>
-      </c>
-      <c r="F14" s="167"/>
-      <c r="G14" s="165"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="161" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B15" s="162" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C15" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="163">
-        <v>7</v>
-      </c>
-      <c r="E15" s="163">
-        <v>3</v>
-      </c>
-      <c r="F15" s="167"/>
-      <c r="G15" s="165"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B16" s="162" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C16" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="163">
-        <v>4</v>
-      </c>
-      <c r="E16" s="163">
-        <v>3</v>
-      </c>
-      <c r="F16" s="167"/>
-      <c r="G16" s="165"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="161" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B17" s="162" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C17" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="163">
-        <v>4</v>
-      </c>
-      <c r="E17" s="163">
-        <v>3</v>
-      </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="161" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B18" s="162" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C18" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="163">
-        <v>5</v>
-      </c>
-      <c r="E18" s="163">
-        <v>3</v>
-      </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="170"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="161" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B19" s="162" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C19" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="163">
-        <v>7</v>
-      </c>
-      <c r="E19" s="163">
-        <v>3</v>
-      </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="170"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B20" s="162" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C20" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="163">
-        <v>7</v>
-      </c>
-      <c r="E20" s="163">
-        <v>9</v>
-      </c>
-      <c r="F20" s="169"/>
-      <c r="G20" s="170"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="161" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B21" s="162" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C21" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="163">
-        <v>4</v>
-      </c>
-      <c r="E21" s="163">
-        <v>3</v>
-      </c>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="161" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B22" s="162" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C22" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="163">
-        <v>4</v>
-      </c>
-      <c r="E22" s="163">
-        <v>3</v>
-      </c>
-      <c r="F22" s="169"/>
-      <c r="G22" s="170"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="161" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B23" s="162" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C23" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="163">
-        <v>4</v>
-      </c>
-      <c r="E23" s="163">
-        <v>3</v>
-      </c>
-      <c r="F23" s="169"/>
-      <c r="G23" s="170"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="161" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B24" s="162" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C24" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="163">
-        <v>4</v>
-      </c>
-      <c r="E24" s="163">
-        <v>3</v>
-      </c>
-      <c r="F24" s="169"/>
-      <c r="G24" s="170"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="161" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B25" s="162" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C25" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="163">
-        <v>6</v>
-      </c>
-      <c r="E25" s="163">
-        <v>3</v>
-      </c>
-      <c r="F25" s="169"/>
-      <c r="G25" s="170"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="161" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B26" s="162" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C26" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="163">
-        <v>6</v>
-      </c>
-      <c r="E26" s="163">
-        <v>3</v>
-      </c>
-      <c r="F26" s="169"/>
-      <c r="G26" s="170"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B27" s="162" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C27" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="163">
-        <v>1</v>
-      </c>
-      <c r="E27" s="163">
-        <v>0</v>
-      </c>
-      <c r="F27" s="169"/>
-      <c r="G27" s="170"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="161" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B28" s="162" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C28" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="163">
-        <v>8</v>
-      </c>
-      <c r="E28" s="163">
-        <v>0</v>
-      </c>
-      <c r="F28" s="169"/>
-      <c r="G28" s="170"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="161" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B29" s="162" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C29" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="163">
-        <v>15</v>
-      </c>
-      <c r="E29" s="163">
-        <v>0</v>
-      </c>
-      <c r="F29" s="169"/>
-      <c r="G29" s="170"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="161" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B30" s="162" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C30" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="163">
-        <v>2</v>
-      </c>
-      <c r="E30" s="163">
-        <v>0</v>
-      </c>
-      <c r="F30" s="169"/>
-      <c r="G30" s="170"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="161" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B31" s="162" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C31" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="163">
-        <v>3</v>
-      </c>
-      <c r="E31" s="163">
-        <v>2</v>
-      </c>
-      <c r="F31" s="169"/>
-      <c r="G31" s="170"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="161" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B32" s="162" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C32" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="163">
-        <v>2</v>
-      </c>
-      <c r="E32" s="163">
-        <v>0</v>
-      </c>
-      <c r="F32" s="169"/>
-      <c r="G32" s="170"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="161" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B33" s="162" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C33" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="163">
-        <v>3</v>
-      </c>
-      <c r="E33" s="163">
-        <v>2</v>
-      </c>
-      <c r="F33" s="169"/>
-      <c r="G33" s="170"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="161" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B34" s="162" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C34" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="163">
-        <v>2</v>
-      </c>
-      <c r="E34" s="163">
-        <v>0</v>
-      </c>
-      <c r="F34" s="169"/>
-      <c r="G34" s="170"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="161" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B35" s="162" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C35" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="163">
-        <v>3</v>
-      </c>
-      <c r="E35" s="163">
-        <v>2</v>
-      </c>
-      <c r="F35" s="169"/>
-      <c r="G35" s="170"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B36" s="162" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C36" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="163">
-        <v>2</v>
-      </c>
-      <c r="E36" s="163">
-        <v>0</v>
-      </c>
-      <c r="F36" s="169"/>
-      <c r="G36" s="170"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="161" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B37" s="162" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C37" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="163">
-        <v>3</v>
-      </c>
-      <c r="E37" s="163">
-        <v>2</v>
-      </c>
-      <c r="F37" s="169"/>
-      <c r="G37" s="170"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="161" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B38" s="162" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C38" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="163">
-        <v>2</v>
-      </c>
-      <c r="E38" s="163">
-        <v>0</v>
-      </c>
-      <c r="F38" s="169"/>
-      <c r="G38" s="170"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="161" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B39" s="162" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C39" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="163">
-        <v>3</v>
-      </c>
-      <c r="E39" s="163">
-        <v>2</v>
-      </c>
-      <c r="F39" s="169"/>
-      <c r="G39" s="170"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="161" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B40" s="162" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C40" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="163">
-        <v>1</v>
-      </c>
-      <c r="E40" s="163">
-        <v>0</v>
-      </c>
-      <c r="F40" s="169"/>
-      <c r="G40" s="170"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="161" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B41" s="162" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C41" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="163">
-        <v>1</v>
-      </c>
-      <c r="E41" s="163">
-        <v>0</v>
-      </c>
-      <c r="F41" s="169"/>
-      <c r="G41" s="170"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="161" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B42" s="162" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C42" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="163">
-        <v>8</v>
-      </c>
-      <c r="E42" s="163">
-        <v>0</v>
-      </c>
-      <c r="F42" s="169"/>
-      <c r="G42" s="170"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="161" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B43" s="162" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C43" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="163">
-        <v>5</v>
-      </c>
-      <c r="E43" s="163">
-        <v>6</v>
-      </c>
-      <c r="F43" s="169"/>
-      <c r="G43" s="170"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="171" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B44" s="172" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C44" s="173" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="173">
-        <v>512</v>
-      </c>
-      <c r="E44" s="173">
-        <v>0</v>
-      </c>
-      <c r="F44" s="174"/>
-      <c r="G44" s="175"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10962,989 +10973,989 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
+      <c r="A1" s="185" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
     </row>
     <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="157" t="s">
         <v>836</v>
       </c>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="157" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D3" s="157" t="s">
         <v>1034</v>
       </c>
-      <c r="D3" s="158" t="s">
+      <c r="E3" s="157" t="s">
         <v>1035</v>
       </c>
-      <c r="E3" s="158" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F3" s="159" t="s">
+      <c r="F3" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="160" t="s">
+      <c r="G3" s="159" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="163">
+      <c r="C4" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="162">
         <v>10</v>
       </c>
-      <c r="E4" s="163">
+      <c r="E4" s="162">
         <v>0</v>
       </c>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="169"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="160" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B5" s="161" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C5" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="162">
+        <v>3</v>
+      </c>
+      <c r="E5" s="162">
+        <v>0</v>
+      </c>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="160" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B6" s="161" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="162">
+        <v>3</v>
+      </c>
+      <c r="E6" s="162">
+        <v>0</v>
+      </c>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="160" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="161" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="162">
+        <v>10</v>
+      </c>
+      <c r="E7" s="162">
+        <v>0</v>
+      </c>
+      <c r="F7" s="168"/>
+      <c r="G7" s="169"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="160" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B8" s="161" t="s">
         <v>1040</v>
       </c>
-      <c r="B5" s="162" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C5" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="163">
+      <c r="C8" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="162">
+        <v>4</v>
+      </c>
+      <c r="E8" s="162">
+        <v>0</v>
+      </c>
+      <c r="F8" s="168"/>
+      <c r="G8" s="169"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="161" t="s">
+        <v>451</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="162">
         <v>3</v>
       </c>
-      <c r="E5" s="163">
+      <c r="E9" s="162">
         <v>0</v>
       </c>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="161" t="s">
+      <c r="F9" s="168"/>
+      <c r="G9" s="169"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="160" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B10" s="161" t="s">
         <v>1118</v>
       </c>
-      <c r="B6" s="162" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="163">
+      <c r="C10" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="162">
+        <v>4</v>
+      </c>
+      <c r="E10" s="162">
+        <v>0</v>
+      </c>
+      <c r="F10" s="168"/>
+      <c r="G10" s="169"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="160" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C11" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="162">
+        <v>2</v>
+      </c>
+      <c r="E11" s="162">
+        <v>0</v>
+      </c>
+      <c r="F11" s="168"/>
+      <c r="G11" s="169"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="160" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C12" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="162">
+        <v>4</v>
+      </c>
+      <c r="E12" s="162">
+        <v>0</v>
+      </c>
+      <c r="F12" s="168"/>
+      <c r="G12" s="169"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="160" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B13" s="161" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C13" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="162">
+        <v>2</v>
+      </c>
+      <c r="E13" s="162">
+        <v>0</v>
+      </c>
+      <c r="F13" s="168"/>
+      <c r="G13" s="169"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="160" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="162">
+        <v>7</v>
+      </c>
+      <c r="E14" s="162">
         <v>3</v>
       </c>
-      <c r="E6" s="163">
+      <c r="F14" s="168"/>
+      <c r="G14" s="169"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="160" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B15" s="161" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C15" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="162">
+        <v>7</v>
+      </c>
+      <c r="E15" s="162">
+        <v>3</v>
+      </c>
+      <c r="F15" s="168"/>
+      <c r="G15" s="169"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="160" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B16" s="161" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="162">
+        <v>8</v>
+      </c>
+      <c r="E16" s="162">
         <v>0</v>
       </c>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="162" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="163">
-        <v>10</v>
-      </c>
-      <c r="E7" s="163">
+      <c r="F16" s="168"/>
+      <c r="G16" s="169"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="160" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B17" s="161" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="162">
+        <v>7</v>
+      </c>
+      <c r="E17" s="162">
+        <v>3</v>
+      </c>
+      <c r="F17" s="168"/>
+      <c r="G17" s="169"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="160" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B18" s="161" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="162">
+        <v>7</v>
+      </c>
+      <c r="E18" s="162">
+        <v>3</v>
+      </c>
+      <c r="F18" s="168"/>
+      <c r="G18" s="169"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="160" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B19" s="161" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="162">
+        <v>7</v>
+      </c>
+      <c r="E19" s="162">
+        <v>3</v>
+      </c>
+      <c r="F19" s="168"/>
+      <c r="G19" s="169"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="160" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B20" s="161" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="162">
+        <v>7</v>
+      </c>
+      <c r="E20" s="162">
+        <v>3</v>
+      </c>
+      <c r="F20" s="168"/>
+      <c r="G20" s="169"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="160" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B21" s="161" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C21" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="162">
+        <v>7</v>
+      </c>
+      <c r="E21" s="162">
+        <v>3</v>
+      </c>
+      <c r="F21" s="168"/>
+      <c r="G21" s="169"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="160" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B22" s="161" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C22" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="162">
+        <v>7</v>
+      </c>
+      <c r="E22" s="162">
+        <v>3</v>
+      </c>
+      <c r="F22" s="168"/>
+      <c r="G22" s="169"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="160" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B23" s="161" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C23" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="162">
+        <v>7</v>
+      </c>
+      <c r="E23" s="162">
+        <v>3</v>
+      </c>
+      <c r="F23" s="168"/>
+      <c r="G23" s="169"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="160" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B24" s="161" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C24" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="162">
+        <v>7</v>
+      </c>
+      <c r="E24" s="162">
+        <v>3</v>
+      </c>
+      <c r="F24" s="168"/>
+      <c r="G24" s="169"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="160" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B25" s="161" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C25" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="162">
+        <v>7</v>
+      </c>
+      <c r="E25" s="162">
+        <v>3</v>
+      </c>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="160" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B26" s="161" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C26" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="162">
+        <v>7</v>
+      </c>
+      <c r="E26" s="162">
+        <v>3</v>
+      </c>
+      <c r="F26" s="168"/>
+      <c r="G26" s="169"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="160" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B27" s="161" t="s">
+        <v>735</v>
+      </c>
+      <c r="C27" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="162">
+        <v>8</v>
+      </c>
+      <c r="E27" s="162">
         <v>0</v>
       </c>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="161" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B8" s="162" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C8" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="163">
-        <v>4</v>
-      </c>
-      <c r="E8" s="163">
+      <c r="F27" s="168"/>
+      <c r="G27" s="169"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="160" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B28" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="162">
+        <v>2</v>
+      </c>
+      <c r="E28" s="162">
         <v>0</v>
       </c>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="161" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="162" t="s">
-        <v>451</v>
-      </c>
-      <c r="C9" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="163">
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="160" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B29" s="161" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C29" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="162">
+        <v>8</v>
+      </c>
+      <c r="E29" s="162">
+        <v>0</v>
+      </c>
+      <c r="F29" s="168"/>
+      <c r="G29" s="169"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="160" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B30" s="161" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C30" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="162">
+        <v>1</v>
+      </c>
+      <c r="E30" s="162">
+        <v>0</v>
+      </c>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="160" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B31" s="161" t="s">
+        <v>772</v>
+      </c>
+      <c r="C31" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="162">
+        <v>6</v>
+      </c>
+      <c r="E31" s="162">
+        <v>0</v>
+      </c>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="160" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B32" s="161" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C32" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="162">
+        <v>2</v>
+      </c>
+      <c r="E32" s="162">
+        <v>0</v>
+      </c>
+      <c r="F32" s="168"/>
+      <c r="G32" s="169"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="160" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B33" s="161" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C33" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="162">
         <v>3</v>
       </c>
-      <c r="E9" s="163">
+      <c r="E33" s="162">
+        <v>2</v>
+      </c>
+      <c r="F33" s="168"/>
+      <c r="G33" s="169"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="160" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B34" s="161" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C34" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="162">
+        <v>7</v>
+      </c>
+      <c r="E34" s="162">
+        <v>3</v>
+      </c>
+      <c r="F34" s="168"/>
+      <c r="G34" s="169"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="160" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B35" s="161" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C35" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="162">
+        <v>3</v>
+      </c>
+      <c r="E35" s="162">
+        <v>2</v>
+      </c>
+      <c r="F35" s="168"/>
+      <c r="G35" s="169"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="160" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B36" s="161" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C36" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="162">
+        <v>7</v>
+      </c>
+      <c r="E36" s="162">
+        <v>3</v>
+      </c>
+      <c r="F36" s="168"/>
+      <c r="G36" s="169"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="160" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B37" s="161" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C37" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="162">
+        <v>3</v>
+      </c>
+      <c r="E37" s="162">
+        <v>2</v>
+      </c>
+      <c r="F37" s="168"/>
+      <c r="G37" s="169"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="160" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B38" s="161" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C38" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="162">
+        <v>7</v>
+      </c>
+      <c r="E38" s="162">
+        <v>3</v>
+      </c>
+      <c r="F38" s="168"/>
+      <c r="G38" s="169"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="160" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B39" s="161" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C39" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="162">
+        <v>3</v>
+      </c>
+      <c r="E39" s="162">
+        <v>2</v>
+      </c>
+      <c r="F39" s="168"/>
+      <c r="G39" s="169"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="160" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B40" s="161" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C40" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="162">
+        <v>7</v>
+      </c>
+      <c r="E40" s="162">
+        <v>3</v>
+      </c>
+      <c r="F40" s="168"/>
+      <c r="G40" s="169"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="160" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B41" s="161" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C41" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="162">
+        <v>3</v>
+      </c>
+      <c r="E41" s="162">
+        <v>2</v>
+      </c>
+      <c r="F41" s="168"/>
+      <c r="G41" s="169"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="160" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B42" s="161" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C42" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="162">
+        <v>7</v>
+      </c>
+      <c r="E42" s="162">
+        <v>3</v>
+      </c>
+      <c r="F42" s="168"/>
+      <c r="G42" s="169"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="160" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B43" s="161" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C43" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="162">
+        <v>3</v>
+      </c>
+      <c r="E43" s="162">
+        <v>2</v>
+      </c>
+      <c r="F43" s="168"/>
+      <c r="G43" s="169"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="160" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B44" s="161" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C44" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="162">
+        <v>7</v>
+      </c>
+      <c r="E44" s="162">
+        <v>3</v>
+      </c>
+      <c r="F44" s="168"/>
+      <c r="G44" s="169"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="160" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B45" s="161" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C45" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="162">
+        <v>3</v>
+      </c>
+      <c r="E45" s="162">
+        <v>2</v>
+      </c>
+      <c r="F45" s="168"/>
+      <c r="G45" s="169"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="160" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B46" s="161" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C46" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="162">
+        <v>7</v>
+      </c>
+      <c r="E46" s="162">
+        <v>3</v>
+      </c>
+      <c r="F46" s="168"/>
+      <c r="G46" s="169"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="160" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B47" s="161" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C47" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="162">
+        <v>3</v>
+      </c>
+      <c r="E47" s="162">
+        <v>2</v>
+      </c>
+      <c r="F47" s="168"/>
+      <c r="G47" s="169"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="160" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B48" s="161" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C48" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="162">
+        <v>7</v>
+      </c>
+      <c r="E48" s="162">
+        <v>3</v>
+      </c>
+      <c r="F48" s="168"/>
+      <c r="G48" s="169"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="160" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B49" s="161" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C49" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="162">
+        <v>3</v>
+      </c>
+      <c r="E49" s="162">
+        <v>2</v>
+      </c>
+      <c r="F49" s="168"/>
+      <c r="G49" s="169"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="160" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B50" s="161" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C50" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="162">
+        <v>7</v>
+      </c>
+      <c r="E50" s="162">
+        <v>3</v>
+      </c>
+      <c r="F50" s="168"/>
+      <c r="G50" s="169"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="160" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B51" s="161" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C51" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="162">
+        <v>3</v>
+      </c>
+      <c r="E51" s="162">
+        <v>2</v>
+      </c>
+      <c r="F51" s="168"/>
+      <c r="G51" s="169"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="160" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B52" s="161" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C52" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="162">
+        <v>7</v>
+      </c>
+      <c r="E52" s="162">
+        <v>3</v>
+      </c>
+      <c r="F52" s="168"/>
+      <c r="G52" s="169"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="170" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B53" s="171" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C53" s="172" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="172">
+        <v>8</v>
+      </c>
+      <c r="E53" s="172">
         <v>0</v>
       </c>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B10" s="162" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C10" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="163">
-        <v>4</v>
-      </c>
-      <c r="E10" s="163">
-        <v>0</v>
-      </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="161" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B11" s="162" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C11" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="163">
-        <v>2</v>
-      </c>
-      <c r="E11" s="163">
-        <v>0</v>
-      </c>
-      <c r="F11" s="169"/>
-      <c r="G11" s="170"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="161" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B12" s="162" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C12" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="163">
-        <v>4</v>
-      </c>
-      <c r="E12" s="163">
-        <v>0</v>
-      </c>
-      <c r="F12" s="169"/>
-      <c r="G12" s="170"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="161" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B13" s="162" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C13" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="163">
-        <v>2</v>
-      </c>
-      <c r="E13" s="163">
-        <v>0</v>
-      </c>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="161" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B14" s="162" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C14" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="163">
-        <v>7</v>
-      </c>
-      <c r="E14" s="163">
-        <v>3</v>
-      </c>
-      <c r="F14" s="169"/>
-      <c r="G14" s="170"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="161" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B15" s="162" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C15" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="163">
-        <v>7</v>
-      </c>
-      <c r="E15" s="163">
-        <v>3</v>
-      </c>
-      <c r="F15" s="169"/>
-      <c r="G15" s="170"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B16" s="162" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C16" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="163">
-        <v>8</v>
-      </c>
-      <c r="E16" s="163">
-        <v>0</v>
-      </c>
-      <c r="F16" s="169"/>
-      <c r="G16" s="170"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="161" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B17" s="162" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C17" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="163">
-        <v>7</v>
-      </c>
-      <c r="E17" s="163">
-        <v>3</v>
-      </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="161" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B18" s="162" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C18" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="163">
-        <v>7</v>
-      </c>
-      <c r="E18" s="163">
-        <v>3</v>
-      </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="170"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="161" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B19" s="162" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C19" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="163">
-        <v>7</v>
-      </c>
-      <c r="E19" s="163">
-        <v>3</v>
-      </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="170"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B20" s="162" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C20" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="163">
-        <v>7</v>
-      </c>
-      <c r="E20" s="163">
-        <v>3</v>
-      </c>
-      <c r="F20" s="169"/>
-      <c r="G20" s="170"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="161" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B21" s="162" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C21" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="163">
-        <v>7</v>
-      </c>
-      <c r="E21" s="163">
-        <v>3</v>
-      </c>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="161" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B22" s="162" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C22" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="163">
-        <v>7</v>
-      </c>
-      <c r="E22" s="163">
-        <v>3</v>
-      </c>
-      <c r="F22" s="169"/>
-      <c r="G22" s="170"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="161" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B23" s="162" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C23" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="163">
-        <v>7</v>
-      </c>
-      <c r="E23" s="163">
-        <v>3</v>
-      </c>
-      <c r="F23" s="169"/>
-      <c r="G23" s="170"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="161" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B24" s="162" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C24" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="163">
-        <v>7</v>
-      </c>
-      <c r="E24" s="163">
-        <v>3</v>
-      </c>
-      <c r="F24" s="169"/>
-      <c r="G24" s="170"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="161" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B25" s="162" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C25" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="163">
-        <v>7</v>
-      </c>
-      <c r="E25" s="163">
-        <v>3</v>
-      </c>
-      <c r="F25" s="169"/>
-      <c r="G25" s="170"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="161" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B26" s="162" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C26" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="163">
-        <v>7</v>
-      </c>
-      <c r="E26" s="163">
-        <v>3</v>
-      </c>
-      <c r="F26" s="169"/>
-      <c r="G26" s="170"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B27" s="162" t="s">
-        <v>735</v>
-      </c>
-      <c r="C27" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="163">
-        <v>8</v>
-      </c>
-      <c r="E27" s="163">
-        <v>0</v>
-      </c>
-      <c r="F27" s="169"/>
-      <c r="G27" s="170"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="161" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B28" s="162" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="163">
-        <v>2</v>
-      </c>
-      <c r="E28" s="163">
-        <v>0</v>
-      </c>
-      <c r="F28" s="169"/>
-      <c r="G28" s="170"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="161" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B29" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C29" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="163">
-        <v>8</v>
-      </c>
-      <c r="E29" s="163">
-        <v>0</v>
-      </c>
-      <c r="F29" s="169"/>
-      <c r="G29" s="170"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="161" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B30" s="162" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C30" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="163">
-        <v>1</v>
-      </c>
-      <c r="E30" s="163">
-        <v>0</v>
-      </c>
-      <c r="F30" s="169"/>
-      <c r="G30" s="170"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="161" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B31" s="162" t="s">
-        <v>772</v>
-      </c>
-      <c r="C31" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="163">
-        <v>6</v>
-      </c>
-      <c r="E31" s="163">
-        <v>0</v>
-      </c>
-      <c r="F31" s="169"/>
-      <c r="G31" s="170"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="161" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B32" s="162" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C32" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="163">
-        <v>2</v>
-      </c>
-      <c r="E32" s="163">
-        <v>0</v>
-      </c>
-      <c r="F32" s="169"/>
-      <c r="G32" s="170"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="161" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B33" s="162" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C33" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="163">
-        <v>3</v>
-      </c>
-      <c r="E33" s="163">
-        <v>2</v>
-      </c>
-      <c r="F33" s="169"/>
-      <c r="G33" s="170"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="161" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B34" s="162" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C34" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="163">
-        <v>7</v>
-      </c>
-      <c r="E34" s="163">
-        <v>3</v>
-      </c>
-      <c r="F34" s="169"/>
-      <c r="G34" s="170"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="161" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B35" s="162" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C35" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="163">
-        <v>3</v>
-      </c>
-      <c r="E35" s="163">
-        <v>2</v>
-      </c>
-      <c r="F35" s="169"/>
-      <c r="G35" s="170"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B36" s="162" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C36" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="163">
-        <v>7</v>
-      </c>
-      <c r="E36" s="163">
-        <v>3</v>
-      </c>
-      <c r="F36" s="169"/>
-      <c r="G36" s="170"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="161" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B37" s="162" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C37" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="163">
-        <v>3</v>
-      </c>
-      <c r="E37" s="163">
-        <v>2</v>
-      </c>
-      <c r="F37" s="169"/>
-      <c r="G37" s="170"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="161" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B38" s="162" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C38" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="163">
-        <v>7</v>
-      </c>
-      <c r="E38" s="163">
-        <v>3</v>
-      </c>
-      <c r="F38" s="169"/>
-      <c r="G38" s="170"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="161" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B39" s="162" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C39" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="163">
-        <v>3</v>
-      </c>
-      <c r="E39" s="163">
-        <v>2</v>
-      </c>
-      <c r="F39" s="169"/>
-      <c r="G39" s="170"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="161" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B40" s="162" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C40" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="163">
-        <v>7</v>
-      </c>
-      <c r="E40" s="163">
-        <v>3</v>
-      </c>
-      <c r="F40" s="169"/>
-      <c r="G40" s="170"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="161" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B41" s="162" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C41" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="163">
-        <v>3</v>
-      </c>
-      <c r="E41" s="163">
-        <v>2</v>
-      </c>
-      <c r="F41" s="169"/>
-      <c r="G41" s="170"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="161" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B42" s="162" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C42" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="163">
-        <v>7</v>
-      </c>
-      <c r="E42" s="163">
-        <v>3</v>
-      </c>
-      <c r="F42" s="169"/>
-      <c r="G42" s="170"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="161" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B43" s="162" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C43" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="163">
-        <v>3</v>
-      </c>
-      <c r="E43" s="163">
-        <v>2</v>
-      </c>
-      <c r="F43" s="169"/>
-      <c r="G43" s="170"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="161" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B44" s="162" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C44" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="163">
-        <v>7</v>
-      </c>
-      <c r="E44" s="163">
-        <v>3</v>
-      </c>
-      <c r="F44" s="169"/>
-      <c r="G44" s="170"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="161" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B45" s="162" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C45" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="163">
-        <v>3</v>
-      </c>
-      <c r="E45" s="163">
-        <v>2</v>
-      </c>
-      <c r="F45" s="169"/>
-      <c r="G45" s="170"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="161" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B46" s="162" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C46" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="163">
-        <v>7</v>
-      </c>
-      <c r="E46" s="163">
-        <v>3</v>
-      </c>
-      <c r="F46" s="169"/>
-      <c r="G46" s="170"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="161" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B47" s="162" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C47" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="163">
-        <v>3</v>
-      </c>
-      <c r="E47" s="163">
-        <v>2</v>
-      </c>
-      <c r="F47" s="169"/>
-      <c r="G47" s="170"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="161" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B48" s="162" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C48" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="163">
-        <v>7</v>
-      </c>
-      <c r="E48" s="163">
-        <v>3</v>
-      </c>
-      <c r="F48" s="169"/>
-      <c r="G48" s="170"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="161" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B49" s="162" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C49" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="163">
-        <v>3</v>
-      </c>
-      <c r="E49" s="163">
-        <v>2</v>
-      </c>
-      <c r="F49" s="169"/>
-      <c r="G49" s="170"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="161" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B50" s="162" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C50" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="163">
-        <v>7</v>
-      </c>
-      <c r="E50" s="163">
-        <v>3</v>
-      </c>
-      <c r="F50" s="169"/>
-      <c r="G50" s="170"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="161" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B51" s="162" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C51" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="163">
-        <v>3</v>
-      </c>
-      <c r="E51" s="163">
-        <v>2</v>
-      </c>
-      <c r="F51" s="169"/>
-      <c r="G51" s="170"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="161" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B52" s="162" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C52" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="163">
-        <v>7</v>
-      </c>
-      <c r="E52" s="163">
-        <v>3</v>
-      </c>
-      <c r="F52" s="169"/>
-      <c r="G52" s="170"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="171" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B53" s="172" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C53" s="173" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="173">
-        <v>8</v>
-      </c>
-      <c r="E53" s="173">
-        <v>0</v>
-      </c>
-      <c r="F53" s="174"/>
-      <c r="G53" s="175"/>
+      <c r="F53" s="173"/>
+      <c r="G53" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11958,7 +11969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -11974,13 +11985,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
     </row>
     <row r="2" spans="1:5" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -12022,10 +12033,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="179" customFormat="1" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="177"/>
+    <row r="6" spans="1:5" s="178" customFormat="1" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="176"/>
       <c r="B6" s="79"/>
-      <c r="C6" s="178"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
     </row>
@@ -12226,10 +12237,10 @@
     </row>
     <row r="20" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="88" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C20" s="176" t="s">
         <v>1195</v>
+      </c>
+      <c r="C20" s="175" t="s">
+        <v>1194</v>
       </c>
       <c r="D20" s="90" t="s">
         <v>54</v>
@@ -12240,10 +12251,10 @@
     </row>
     <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="88" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C21" s="176" t="s">
         <v>1197</v>
+      </c>
+      <c r="C21" s="175" t="s">
+        <v>1196</v>
       </c>
       <c r="D21" s="90" t="s">
         <v>54</v>
@@ -12321,15 +12332,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>750</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
     </row>
     <row r="2" spans="1:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -12339,13 +12350,13 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
     </row>
     <row r="3" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
@@ -12414,7 +12425,7 @@
         <v>67</v>
       </c>
       <c r="J4" s="95" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K4" s="99" t="s">
         <v>869</v>
@@ -12454,7 +12465,7 @@
       <c r="F5" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="112" t="s">
         <v>926</v>
       </c>
       <c r="H5" s="63" t="s">
@@ -12513,14 +12524,14 @@
       <c r="F7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="111" t="s">
         <v>70</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>769</v>
       </c>
       <c r="J7" s="95" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K7" s="101" t="s">
         <v>869</v>
@@ -12596,7 +12607,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="95" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K9" s="99" t="s">
         <v>869</v>
@@ -12638,7 +12649,7 @@
       </c>
       <c r="G10" s="24"/>
       <c r="J10" s="95" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K10" s="99" t="s">
         <v>869</v>
@@ -12680,7 +12691,7 @@
       </c>
       <c r="G11" s="24"/>
       <c r="J11" s="95" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K11" s="99" t="s">
         <v>869</v>
@@ -12741,7 +12752,7 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12759,18 +12770,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="K1" s="133" t="s">
-        <v>975</v>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="K1" s="132" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -12817,7 +12828,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="133" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="57" t="s">
@@ -12828,16 +12839,16 @@
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="57"/>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H4" s="54" t="s">
         <v>819</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J4" s="116"/>
+        <v>1220</v>
+      </c>
+      <c r="J4" s="115"/>
       <c r="K4" s="69" t="s">
         <v>845</v>
       </c>
@@ -12857,14 +12868,14 @@
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="57"/>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>824</v>
       </c>
       <c r="I5" s="107"/>
-      <c r="J5" s="116"/>
+      <c r="J5" s="115"/>
       <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -12882,15 +12893,15 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="145" t="s">
+      <c r="G6" s="144" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="54"/>
       <c r="I6" s="107" t="s">
-        <v>1200</v>
-      </c>
-      <c r="J6" s="116"/>
-      <c r="K6" s="125" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J6" s="115"/>
+      <c r="K6" s="124" t="s">
         <v>852</v>
       </c>
     </row>
@@ -12909,15 +12920,15 @@
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="54"/>
       <c r="I7" s="107" t="s">
-        <v>1201</v>
-      </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="125" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J7" s="115"/>
+      <c r="K7" s="124" t="s">
         <v>853</v>
       </c>
     </row>
@@ -12936,17 +12947,17 @@
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="54" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I8" s="68" t="s">
         <v>1202</v>
       </c>
-      <c r="I8" s="68" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="126" t="s">
+      <c r="J8" s="115"/>
+      <c r="K8" s="125" t="s">
         <v>854</v>
       </c>
     </row>
@@ -12969,9 +12980,9 @@
         <v>95</v>
       </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="125" t="s">
+      <c r="I9" s="142"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="124" t="s">
         <v>855</v>
       </c>
     </row>
@@ -12990,15 +13001,15 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H10" s="54" t="s">
         <v>825</v>
       </c>
-      <c r="I10" s="143"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="125" t="s">
+      <c r="I10" s="142"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="124" t="s">
         <v>856</v>
       </c>
     </row>
@@ -13019,17 +13030,17 @@
         <v>8</v>
       </c>
       <c r="F11" s="57"/>
-      <c r="G11" s="144" t="s">
+      <c r="G11" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H11" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="I11" s="181" t="s">
-        <v>1204</v>
-      </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="127"/>
+      <c r="I11" s="180" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J11" s="115"/>
+      <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
@@ -13046,13 +13057,13 @@
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="68"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="125" t="s">
+      <c r="J12" s="115"/>
+      <c r="K12" s="124" t="s">
         <v>857</v>
       </c>
     </row>
@@ -13071,17 +13082,17 @@
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
-      <c r="G13" s="144" t="s">
+      <c r="G13" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H13" s="54" t="s">
         <v>844</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+        <v>1006</v>
+      </c>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="14" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -13098,17 +13109,17 @@
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="144" t="s">
+      <c r="G14" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="54" t="s">
         <v>846</v>
       </c>
       <c r="I14" s="68" t="s">
-        <v>1223</v>
-      </c>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
+        <v>1222</v>
+      </c>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
     </row>
     <row r="15" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
@@ -13125,17 +13136,17 @@
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="57"/>
-      <c r="G15" s="144" t="s">
+      <c r="G15" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H15" s="54" t="s">
         <v>846</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>1223</v>
-      </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
+        <v>1222</v>
+      </c>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
@@ -13152,13 +13163,13 @@
       </c>
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
-      <c r="G16" s="144" t="s">
+      <c r="G16" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="54"/>
       <c r="I16" s="68"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
@@ -13177,13 +13188,13 @@
         <v>2</v>
       </c>
       <c r="F17" s="57"/>
-      <c r="G17" s="144" t="s">
+      <c r="G17" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H17" s="54"/>
       <c r="I17" s="68"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
@@ -13207,8 +13218,8 @@
         <v>42</v>
       </c>
       <c r="I18" s="68"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
     </row>
     <row r="19" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
@@ -13225,18 +13236,18 @@
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="144" t="s">
+      <c r="G19" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="54" t="s">
         <v>813</v>
       </c>
       <c r="I19" s="68" t="s">
-        <v>1222</v>
-      </c>
-      <c r="J19" s="116"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="116"/>
+        <v>1221</v>
+      </c>
+      <c r="J19" s="115"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="115"/>
     </row>
     <row r="20" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
@@ -13259,132 +13270,132 @@
         <v>95</v>
       </c>
       <c r="H20" s="54"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="127" t="s">
+      <c r="I20" s="142"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="126" t="s">
         <v>956</v>
       </c>
-      <c r="L20" s="128" t="s">
+      <c r="L20" s="127" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="121" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="121">
+      <c r="C21" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="120">
         <v>4</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="146" t="s">
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123" t="s">
+      <c r="H21" s="121"/>
+      <c r="I21" s="122" t="s">
         <v>847</v>
       </c>
-      <c r="J21" s="116"/>
-      <c r="K21" s="189" t="s">
+      <c r="J21" s="115"/>
+      <c r="K21" s="188" t="s">
         <v>960</v>
       </c>
-      <c r="L21" s="124">
+      <c r="L21" s="123">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="121" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="121">
+      <c r="C22" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="120">
         <v>1</v>
       </c>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="146" t="s">
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="122" t="s">
+      <c r="H22" s="121" t="s">
         <v>848</v>
       </c>
-      <c r="I22" s="123" t="s">
+      <c r="I22" s="122" t="s">
         <v>849</v>
       </c>
-      <c r="J22" s="116"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="116" t="s">
+      <c r="J22" s="115"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="115" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="121" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="121">
+      <c r="C23" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="120">
         <v>4</v>
       </c>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="146" t="s">
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="122" t="s">
+      <c r="H23" s="121" t="s">
         <v>850</v>
       </c>
-      <c r="I23" s="123" t="s">
+      <c r="I23" s="122" t="s">
         <v>952</v>
       </c>
-      <c r="J23" s="116"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="116" t="s">
+      <c r="J23" s="115"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="115" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="121" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="121">
+      <c r="C24" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="120">
         <v>50</v>
       </c>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="146" t="s">
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="122" t="s">
+      <c r="H24" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="123" t="s">
+      <c r="I24" s="122" t="s">
         <v>953</v>
       </c>
-      <c r="J24" s="116"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="116" t="s">
+      <c r="J24" s="115"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="115" t="s">
         <v>955</v>
       </c>
     </row>
@@ -13408,8 +13419,8 @@
       </c>
       <c r="H25" s="54"/>
       <c r="I25" s="68"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
     </row>
     <row r="26" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
@@ -13426,17 +13437,17 @@
       </c>
       <c r="E26" s="57"/>
       <c r="F26" s="57"/>
-      <c r="G26" s="57" t="s">
-        <v>95</v>
+      <c r="G26" s="143" t="s">
+        <v>66</v>
       </c>
       <c r="H26" s="54" t="s">
         <v>959</v>
       </c>
-      <c r="I26" s="191" t="s">
-        <v>1224</v>
-      </c>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
+      <c r="I26" s="190" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
     </row>
     <row r="27" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
@@ -13453,15 +13464,15 @@
       </c>
       <c r="E27" s="57"/>
       <c r="F27" s="57"/>
-      <c r="G27" s="57" t="s">
-        <v>95</v>
+      <c r="G27" s="143" t="s">
+        <v>66</v>
       </c>
       <c r="H27" s="54" t="s">
         <v>959</v>
       </c>
-      <c r="I27" s="192"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
     </row>
     <row r="28" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
@@ -13478,15 +13489,15 @@
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
-      <c r="G28" s="144" t="s">
+      <c r="G28" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="129" t="s">
+      <c r="H28" s="128" t="s">
         <v>962</v>
       </c>
-      <c r="I28" s="192"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
     </row>
     <row r="29" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
@@ -13503,15 +13514,15 @@
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="57"/>
-      <c r="G29" s="144" t="s">
+      <c r="G29" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H29" s="54" t="s">
         <v>961</v>
       </c>
-      <c r="I29" s="193"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
@@ -13528,7 +13539,7 @@
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
-      <c r="G30" s="144" t="s">
+      <c r="G30" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H30" s="54" t="s">
@@ -13537,8 +13548,8 @@
       <c r="I30" s="68" t="s">
         <v>859</v>
       </c>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
     </row>
     <row r="31" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
@@ -13558,14 +13569,14 @@
       <c r="G31" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="140" t="s">
+      <c r="H31" s="139" t="s">
+        <v>995</v>
+      </c>
+      <c r="I31" s="68" t="s">
         <v>996</v>
       </c>
-      <c r="I31" s="68" t="s">
-        <v>997</v>
-      </c>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
@@ -13589,8 +13600,8 @@
         <v>963</v>
       </c>
       <c r="I32" s="107"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
     </row>
     <row r="33" spans="1:11" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
@@ -13614,8 +13625,8 @@
         <v>963</v>
       </c>
       <c r="I33" s="107"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
     </row>
     <row r="34" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
@@ -13636,11 +13647,11 @@
         <v>95</v>
       </c>
       <c r="H34" s="54"/>
-      <c r="I34" s="194" t="s">
+      <c r="I34" s="193" t="s">
         <v>964</v>
       </c>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
     </row>
     <row r="35" spans="1:11" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
@@ -13661,9 +13672,9 @@
         <v>95</v>
       </c>
       <c r="H35" s="54"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
     </row>
     <row r="36" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
@@ -13680,7 +13691,7 @@
       </c>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
-      <c r="G36" s="144" t="s">
+      <c r="G36" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H36" s="54" t="s">
@@ -13689,8 +13700,8 @@
       <c r="I36" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J36" s="116"/>
-      <c r="K36" s="196" t="s">
+      <c r="J36" s="115"/>
+      <c r="K36" s="195" t="s">
         <v>965</v>
       </c>
     </row>
@@ -13709,7 +13720,7 @@
       </c>
       <c r="E37" s="57"/>
       <c r="F37" s="57"/>
-      <c r="G37" s="144" t="s">
+      <c r="G37" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H37" s="54" t="s">
@@ -13718,8 +13729,8 @@
       <c r="I37" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J37" s="116"/>
-      <c r="K37" s="197"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="196"/>
     </row>
     <row r="38" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
@@ -13736,7 +13747,7 @@
       </c>
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
-      <c r="G38" s="144" t="s">
+      <c r="G38" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H38" s="54" t="s">
@@ -13745,8 +13756,8 @@
       <c r="I38" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J38" s="116"/>
-      <c r="K38" s="197"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="196"/>
     </row>
     <row r="39" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
@@ -13763,7 +13774,7 @@
       </c>
       <c r="E39" s="57"/>
       <c r="F39" s="57"/>
-      <c r="G39" s="144" t="s">
+      <c r="G39" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H39" s="54" t="s">
@@ -13772,8 +13783,8 @@
       <c r="I39" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J39" s="116"/>
-      <c r="K39" s="197"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="196"/>
     </row>
     <row r="40" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
@@ -13792,7 +13803,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="57"/>
-      <c r="G40" s="144" t="s">
+      <c r="G40" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H40" s="54" t="s">
@@ -13801,8 +13812,8 @@
       <c r="I40" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J40" s="116"/>
-      <c r="K40" s="197"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="196"/>
     </row>
     <row r="41" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
@@ -13819,7 +13830,7 @@
       </c>
       <c r="E41" s="57"/>
       <c r="F41" s="57"/>
-      <c r="G41" s="144" t="s">
+      <c r="G41" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H41" s="54" t="s">
@@ -13828,8 +13839,8 @@
       <c r="I41" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J41" s="116"/>
-      <c r="K41" s="197"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="196"/>
     </row>
     <row r="42" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
@@ -13855,8 +13866,8 @@
       <c r="I42" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J42" s="116"/>
-      <c r="K42" s="197"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="196"/>
     </row>
     <row r="43" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
@@ -13882,8 +13893,8 @@
       <c r="I43" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J43" s="116"/>
-      <c r="K43" s="197"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="196"/>
     </row>
     <row r="44" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
@@ -13909,8 +13920,8 @@
       <c r="I44" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J44" s="116"/>
-      <c r="K44" s="197"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="196"/>
     </row>
     <row r="45" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
@@ -13927,7 +13938,7 @@
       </c>
       <c r="E45" s="57"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="144" t="s">
+      <c r="G45" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H45" s="54" t="s">
@@ -13936,8 +13947,8 @@
       <c r="I45" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J45" s="116"/>
-      <c r="K45" s="197"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="196"/>
     </row>
     <row r="46" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
@@ -13956,7 +13967,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="144" t="s">
+      <c r="G46" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H46" s="54" t="s">
@@ -13965,8 +13976,8 @@
       <c r="I46" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J46" s="116"/>
-      <c r="K46" s="197"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="196"/>
     </row>
     <row r="47" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
@@ -13983,7 +13994,7 @@
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="57"/>
-      <c r="G47" s="144" t="s">
+      <c r="G47" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H47" s="54" t="s">
@@ -13992,8 +14003,8 @@
       <c r="I47" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J47" s="116"/>
-      <c r="K47" s="197"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="196"/>
     </row>
     <row r="48" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
@@ -14010,7 +14021,7 @@
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
-      <c r="G48" s="144" t="s">
+      <c r="G48" s="143" t="s">
         <v>66</v>
       </c>
       <c r="H48" s="54" t="s">
@@ -14019,8 +14030,8 @@
       <c r="I48" s="67" t="s">
         <v>851</v>
       </c>
-      <c r="J48" s="116"/>
-      <c r="K48" s="197"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="196"/>
     </row>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
@@ -14044,8 +14055,8 @@
       <c r="I49" s="67" t="s">
         <v>927</v>
       </c>
-      <c r="J49" s="116"/>
-      <c r="K49" s="116"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="115"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
@@ -14073,8 +14084,8 @@
       <c r="I50" s="67" t="s">
         <v>928</v>
       </c>
-      <c r="J50" s="116"/>
-      <c r="K50" s="116"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
@@ -14102,8 +14113,8 @@
       <c r="I51" s="67" t="s">
         <v>928</v>
       </c>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115"/>
     </row>
     <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
@@ -14127,8 +14138,8 @@
       <c r="I52" s="67" t="s">
         <v>929</v>
       </c>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
     </row>
     <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
@@ -14152,8 +14163,8 @@
       <c r="I53" s="67" t="s">
         <v>927</v>
       </c>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="115"/>
     </row>
     <row r="54" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
@@ -14181,8 +14192,8 @@
       <c r="I54" s="67" t="s">
         <v>930</v>
       </c>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
     </row>
     <row r="55" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
@@ -14210,8 +14221,8 @@
       <c r="I55" s="67" t="s">
         <v>930</v>
       </c>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
     </row>
     <row r="56" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
@@ -14235,8 +14246,8 @@
       <c r="I56" s="67" t="s">
         <v>929</v>
       </c>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="115"/>
     </row>
     <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
@@ -14256,12 +14267,12 @@
       <c r="G57" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H57" s="140" t="s">
-        <v>998</v>
+      <c r="H57" s="139" t="s">
+        <v>997</v>
       </c>
       <c r="I57" s="67"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="115"/>
     </row>
     <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
@@ -14281,14 +14292,14 @@
       <c r="G58" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H58" s="140" t="s">
+      <c r="H58" s="139" t="s">
+        <v>975</v>
+      </c>
+      <c r="I58" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="I58" s="67" t="s">
-        <v>977</v>
-      </c>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
     </row>
     <row r="59" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
@@ -14308,14 +14319,14 @@
       <c r="G59" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H59" s="140" t="s">
+      <c r="H59" s="139" t="s">
+        <v>977</v>
+      </c>
+      <c r="I59" s="67" t="s">
         <v>978</v>
       </c>
-      <c r="I59" s="67" t="s">
-        <v>979</v>
-      </c>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="115"/>
     </row>
     <row r="60" spans="1:11" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
@@ -14337,10 +14348,10 @@
       <c r="G60" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H60" s="140"/>
+      <c r="H60" s="139"/>
       <c r="I60" s="67"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
     </row>
     <row r="61" spans="1:11" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
@@ -14360,10 +14371,10 @@
       <c r="G61" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H61" s="140"/>
+      <c r="H61" s="139"/>
       <c r="I61" s="67"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="116"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
@@ -14383,14 +14394,14 @@
       <c r="G62" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H62" s="140" t="s">
-        <v>976</v>
+      <c r="H62" s="139" t="s">
+        <v>975</v>
       </c>
       <c r="I62" s="67" t="s">
-        <v>980</v>
-      </c>
-      <c r="J62" s="116"/>
-      <c r="K62" s="116"/>
+        <v>979</v>
+      </c>
+      <c r="J62" s="115"/>
+      <c r="K62" s="115"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
@@ -14411,13 +14422,13 @@
         <v>95</v>
       </c>
       <c r="H63" s="56" t="s">
+        <v>980</v>
+      </c>
+      <c r="I63" s="140" t="s">
         <v>981</v>
       </c>
-      <c r="I63" s="141" t="s">
-        <v>982</v>
-      </c>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
+      <c r="J63" s="115"/>
+      <c r="K63" s="115"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
@@ -14437,14 +14448,14 @@
       <c r="G64" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H64" s="140" t="s">
+      <c r="H64" s="139" t="s">
+        <v>982</v>
+      </c>
+      <c r="I64" s="67" t="s">
         <v>983</v>
       </c>
-      <c r="I64" s="67" t="s">
-        <v>984</v>
-      </c>
-      <c r="J64" s="116"/>
-      <c r="K64" s="116"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="115"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
@@ -14464,10 +14475,10 @@
       <c r="G65" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H65" s="140"/>
+      <c r="H65" s="139"/>
       <c r="I65" s="67"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="115"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
@@ -14487,10 +14498,10 @@
       <c r="G66" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H66" s="140"/>
+      <c r="H66" s="139"/>
       <c r="I66" s="67"/>
-      <c r="J66" s="116"/>
-      <c r="K66" s="116"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="115"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
@@ -14510,12 +14521,12 @@
       <c r="G67" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H67" s="140"/>
+      <c r="H67" s="139"/>
       <c r="I67" s="67" t="s">
         <v>931</v>
       </c>
-      <c r="J67" s="116"/>
-      <c r="K67" s="116"/>
+      <c r="J67" s="115"/>
+      <c r="K67" s="115"/>
     </row>
     <row r="68" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
@@ -14535,12 +14546,12 @@
       <c r="G68" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H68" s="140"/>
+      <c r="H68" s="139"/>
       <c r="I68" s="67" t="s">
-        <v>999</v>
-      </c>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
+        <v>998</v>
+      </c>
+      <c r="J68" s="115"/>
+      <c r="K68" s="115"/>
     </row>
     <row r="69" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
@@ -14564,8 +14575,8 @@
       <c r="I69" s="67" t="s">
         <v>932</v>
       </c>
-      <c r="J69" s="116"/>
-      <c r="K69" s="116"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="115"/>
     </row>
     <row r="70" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
@@ -14589,8 +14600,8 @@
       <c r="I70" s="67" t="s">
         <v>932</v>
       </c>
-      <c r="J70" s="116"/>
-      <c r="K70" s="116"/>
+      <c r="J70" s="115"/>
+      <c r="K70" s="115"/>
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
@@ -14618,8 +14629,8 @@
       <c r="I71" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="J71" s="116"/>
-      <c r="K71" s="116"/>
+      <c r="J71" s="115"/>
+      <c r="K71" s="115"/>
     </row>
     <row r="72" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
@@ -14643,8 +14654,8 @@
       <c r="I72" s="67" t="s">
         <v>934</v>
       </c>
-      <c r="J72" s="116"/>
-      <c r="K72" s="116"/>
+      <c r="J72" s="115"/>
+      <c r="K72" s="115"/>
     </row>
     <row r="73" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
@@ -14672,8 +14683,8 @@
       <c r="I73" s="67" t="s">
         <v>934</v>
       </c>
-      <c r="J73" s="116"/>
-      <c r="K73" s="116"/>
+      <c r="J73" s="115"/>
+      <c r="K73" s="115"/>
     </row>
     <row r="74" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -14701,8 +14712,8 @@
       <c r="I74" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="J74" s="116"/>
-      <c r="K74" s="116"/>
+      <c r="J74" s="115"/>
+      <c r="K74" s="115"/>
     </row>
     <row r="75" spans="1:11" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
@@ -14726,8 +14737,8 @@
       <c r="I75" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="J75" s="116"/>
-      <c r="K75" s="116"/>
+      <c r="J75" s="115"/>
+      <c r="K75" s="115"/>
     </row>
     <row r="76" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
@@ -14747,14 +14758,14 @@
       <c r="G76" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H76" s="140" t="s">
-        <v>986</v>
+      <c r="H76" s="139" t="s">
+        <v>985</v>
       </c>
       <c r="I76" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="J76" s="116"/>
-      <c r="K76" s="116"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="115"/>
     </row>
     <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
@@ -14778,8 +14789,8 @@
       <c r="I77" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="J77" s="116"/>
-      <c r="K77" s="116"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
     </row>
     <row r="78" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
@@ -14807,8 +14818,8 @@
       <c r="I78" s="67" t="s">
         <v>934</v>
       </c>
-      <c r="J78" s="116"/>
-      <c r="K78" s="116"/>
+      <c r="J78" s="115"/>
+      <c r="K78" s="115"/>
     </row>
     <row r="79" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
@@ -14836,8 +14847,8 @@
       <c r="I79" s="67" t="s">
         <v>934</v>
       </c>
-      <c r="J79" s="116"/>
-      <c r="K79" s="116"/>
+      <c r="J79" s="115"/>
+      <c r="K79" s="115"/>
     </row>
     <row r="80" spans="1:11" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
@@ -14861,8 +14872,8 @@
       <c r="I80" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="J80" s="116"/>
-      <c r="K80" s="116"/>
+      <c r="J80" s="115"/>
+      <c r="K80" s="115"/>
     </row>
     <row r="81" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
@@ -14882,14 +14893,14 @@
       <c r="G81" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H81" s="140" t="s">
-        <v>985</v>
+      <c r="H81" s="139" t="s">
+        <v>984</v>
       </c>
       <c r="I81" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="J81" s="116"/>
-      <c r="K81" s="116"/>
+      <c r="J81" s="115"/>
+      <c r="K81" s="115"/>
     </row>
     <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
@@ -14913,8 +14924,8 @@
       <c r="I82" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="J82" s="116"/>
-      <c r="K82" s="116"/>
+      <c r="J82" s="115"/>
+      <c r="K82" s="115"/>
     </row>
     <row r="83" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
@@ -14942,8 +14953,8 @@
       <c r="I83" s="67" t="s">
         <v>934</v>
       </c>
-      <c r="J83" s="116"/>
-      <c r="K83" s="116"/>
+      <c r="J83" s="115"/>
+      <c r="K83" s="115"/>
     </row>
     <row r="84" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
@@ -14971,8 +14982,8 @@
       <c r="I84" s="67" t="s">
         <v>934</v>
       </c>
-      <c r="J84" s="116"/>
-      <c r="K84" s="116"/>
+      <c r="J84" s="115"/>
+      <c r="K84" s="115"/>
     </row>
     <row r="85" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="s">
@@ -14992,14 +15003,14 @@
       <c r="G85" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H85" s="140" t="s">
+      <c r="H85" s="139" t="s">
+        <v>986</v>
+      </c>
+      <c r="I85" s="68" t="s">
         <v>987</v>
       </c>
-      <c r="I85" s="68" t="s">
-        <v>988</v>
-      </c>
-      <c r="J85" s="116"/>
-      <c r="K85" s="116"/>
+      <c r="J85" s="115"/>
+      <c r="K85" s="115"/>
     </row>
     <row r="86" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21" t="s">
@@ -15019,14 +15030,14 @@
       <c r="G86" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H86" s="140" t="s">
+      <c r="H86" s="139" t="s">
+        <v>986</v>
+      </c>
+      <c r="I86" s="68" t="s">
         <v>987</v>
       </c>
-      <c r="I86" s="68" t="s">
-        <v>988</v>
-      </c>
-      <c r="J86" s="116"/>
-      <c r="K86" s="116"/>
+      <c r="J86" s="115"/>
+      <c r="K86" s="115"/>
     </row>
     <row r="87" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
@@ -15046,14 +15057,14 @@
       <c r="G87" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H87" s="140" t="s">
+      <c r="H87" s="139" t="s">
+        <v>986</v>
+      </c>
+      <c r="I87" s="68" t="s">
         <v>987</v>
       </c>
-      <c r="I87" s="68" t="s">
-        <v>988</v>
-      </c>
-      <c r="J87" s="116"/>
-      <c r="K87" s="116"/>
+      <c r="J87" s="115"/>
+      <c r="K87" s="115"/>
     </row>
     <row r="88" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="s">
@@ -15073,14 +15084,14 @@
       <c r="G88" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H88" s="140" t="s">
+      <c r="H88" s="139" t="s">
+        <v>986</v>
+      </c>
+      <c r="I88" s="68" t="s">
         <v>987</v>
       </c>
-      <c r="I88" s="68" t="s">
-        <v>988</v>
-      </c>
-      <c r="J88" s="116"/>
-      <c r="K88" s="116"/>
+      <c r="J88" s="115"/>
+      <c r="K88" s="115"/>
     </row>
     <row r="89" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
@@ -15100,14 +15111,14 @@
       <c r="G89" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H89" s="140" t="s">
+      <c r="H89" s="139" t="s">
+        <v>986</v>
+      </c>
+      <c r="I89" s="68" t="s">
         <v>987</v>
       </c>
-      <c r="I89" s="68" t="s">
-        <v>988</v>
-      </c>
-      <c r="J89" s="116"/>
-      <c r="K89" s="116"/>
+      <c r="J89" s="115"/>
+      <c r="K89" s="115"/>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
@@ -15129,8 +15140,8 @@
       </c>
       <c r="H90" s="54"/>
       <c r="I90" s="107"/>
-      <c r="J90" s="116"/>
-      <c r="K90" s="116"/>
+      <c r="J90" s="115"/>
+      <c r="K90" s="115"/>
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
@@ -15152,8 +15163,8 @@
       </c>
       <c r="H91" s="54"/>
       <c r="I91" s="107"/>
-      <c r="J91" s="116"/>
-      <c r="K91" s="116"/>
+      <c r="J91" s="115"/>
+      <c r="K91" s="115"/>
     </row>
     <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21" t="s">
@@ -15175,8 +15186,8 @@
       </c>
       <c r="H92" s="54"/>
       <c r="I92" s="107"/>
-      <c r="J92" s="116"/>
-      <c r="K92" s="116"/>
+      <c r="J92" s="115"/>
+      <c r="K92" s="115"/>
     </row>
     <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
@@ -15198,8 +15209,8 @@
       </c>
       <c r="H93" s="54"/>
       <c r="I93" s="107"/>
-      <c r="J93" s="116"/>
-      <c r="K93" s="116"/>
+      <c r="J93" s="115"/>
+      <c r="K93" s="115"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
@@ -15221,52 +15232,52 @@
       </c>
       <c r="H94" s="54"/>
       <c r="I94" s="107"/>
-      <c r="J94" s="116"/>
-      <c r="K94" s="116"/>
+      <c r="J94" s="115"/>
+      <c r="K94" s="115"/>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J97" s="137"/>
-      <c r="K97" s="137"/>
+      <c r="J97" s="136"/>
+      <c r="K97" s="136"/>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J98" s="138"/>
-      <c r="K98" s="139"/>
+      <c r="J98" s="137"/>
+      <c r="K98" s="138"/>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J99" s="138"/>
-      <c r="K99" s="139"/>
+      <c r="J99" s="137"/>
+      <c r="K99" s="138"/>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J100" s="138"/>
-      <c r="K100" s="139"/>
+      <c r="J100" s="137"/>
+      <c r="K100" s="138"/>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J101" s="138"/>
-      <c r="K101" s="139"/>
+      <c r="J101" s="137"/>
+      <c r="K101" s="138"/>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J102" s="138"/>
-      <c r="K102" s="139"/>
+      <c r="J102" s="137"/>
+      <c r="K102" s="138"/>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J103" s="138"/>
-      <c r="K103" s="139"/>
+      <c r="J103" s="137"/>
+      <c r="K103" s="138"/>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J104" s="138"/>
-      <c r="K104" s="139"/>
+      <c r="J104" s="137"/>
+      <c r="K104" s="138"/>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J105" s="138"/>
-      <c r="K105" s="137"/>
+      <c r="J105" s="137"/>
+      <c r="K105" s="136"/>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J106" s="137"/>
-      <c r="K106" s="137"/>
+      <c r="J106" s="136"/>
+      <c r="K106" s="136"/>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J107" s="137"/>
-      <c r="K107" s="137"/>
+      <c r="J107" s="136"/>
+      <c r="K107" s="136"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I94"/>
@@ -15305,16 +15316,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>747</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="I1" s="133" t="s">
-        <v>975</v>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="I1" s="132" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
@@ -15352,7 +15363,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -15368,15 +15379,15 @@
         <v>820</v>
       </c>
       <c r="G4" s="52"/>
-      <c r="I4" s="116" t="s">
-        <v>1008</v>
+      <c r="I4" s="115" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>657</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -15392,7 +15403,7 @@
         <v>764</v>
       </c>
       <c r="G5" s="50"/>
-      <c r="I5" s="116" t="s">
+      <c r="I5" s="115" t="s">
         <v>941</v>
       </c>
     </row>
@@ -16378,16 +16389,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="I1" s="133" t="s">
-        <v>975</v>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="I1" s="132" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
@@ -16425,7 +16436,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -16446,7 +16457,7 @@
       <c r="A5" s="25" t="s">
         <v>698</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>699</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -16461,7 +16472,7 @@
       <c r="F5" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="116" t="s">
         <v>935</v>
       </c>
     </row>
@@ -16482,7 +16493,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="21"/>
-      <c r="G6" s="117"/>
+      <c r="G6" s="116"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
@@ -16501,7 +16512,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="21"/>
-      <c r="G7" s="118"/>
+      <c r="G7" s="117"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
@@ -16522,7 +16533,7 @@
       <c r="F8" s="54" t="s">
         <v>825</v>
       </c>
-      <c r="G8" s="118"/>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
@@ -16543,7 +16554,7 @@
       <c r="F9" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="117" t="s">
         <v>940</v>
       </c>
     </row>
@@ -16566,7 +16577,7 @@
       <c r="F10" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="G10" s="118"/>
+      <c r="G10" s="117"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
@@ -16584,8 +16595,8 @@
       <c r="E11" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="114"/>
-      <c r="G11" s="117"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="116"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
@@ -16603,8 +16614,8 @@
       <c r="E12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="114"/>
-      <c r="G12" s="117"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="116"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
@@ -16623,9 +16634,9 @@
         <v>95</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>992</v>
-      </c>
-      <c r="G13" s="117"/>
+        <v>991</v>
+      </c>
+      <c r="G13" s="116"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
@@ -16644,9 +16655,9 @@
         <v>95</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>992</v>
-      </c>
-      <c r="G14" s="117"/>
+        <v>991</v>
+      </c>
+      <c r="G14" s="116"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -16665,9 +16676,9 @@
         <v>66</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>993</v>
-      </c>
-      <c r="G15" s="117"/>
+        <v>992</v>
+      </c>
+      <c r="G15" s="116"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
@@ -16686,9 +16697,9 @@
         <v>95</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G16" s="117" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G16" s="116" t="s">
         <v>937</v>
       </c>
     </row>
@@ -16709,9 +16720,9 @@
         <v>95</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>992</v>
-      </c>
-      <c r="G17" s="117"/>
+        <v>991</v>
+      </c>
+      <c r="G17" s="116"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
@@ -16730,9 +16741,9 @@
         <v>95</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>992</v>
-      </c>
-      <c r="G18" s="117"/>
+        <v>991</v>
+      </c>
+      <c r="G18" s="116"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
@@ -16751,9 +16762,9 @@
         <v>95</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>994</v>
-      </c>
-      <c r="G19" s="117"/>
+        <v>993</v>
+      </c>
+      <c r="G19" s="116"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -16772,9 +16783,9 @@
         <v>95</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>994</v>
-      </c>
-      <c r="G20" s="117"/>
+        <v>993</v>
+      </c>
+      <c r="G20" s="116"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
@@ -16793,9 +16804,9 @@
         <v>95</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>994</v>
-      </c>
-      <c r="G21" s="117"/>
+        <v>993</v>
+      </c>
+      <c r="G21" s="116"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
@@ -16814,9 +16825,9 @@
         <v>95</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>994</v>
-      </c>
-      <c r="G22" s="117"/>
+        <v>993</v>
+      </c>
+      <c r="G22" s="116"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
@@ -16835,9 +16846,9 @@
         <v>95</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>994</v>
-      </c>
-      <c r="G23" s="117"/>
+        <v>993</v>
+      </c>
+      <c r="G23" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16869,16 +16880,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="I1" s="133" t="s">
-        <v>975</v>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="I1" s="132" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
@@ -16916,7 +16927,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -16934,15 +16945,15 @@
       <c r="G4" s="54" t="s">
         <v>820</v>
       </c>
-      <c r="I4" s="125" t="s">
-        <v>973</v>
+      <c r="I4" s="124" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>698</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>709</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -17033,13 +17044,13 @@
       <c r="D9" s="26">
         <v>8</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="141" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="G9" s="115"/>
+      <c r="G9" s="114"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
@@ -17097,8 +17108,8 @@
       <c r="E12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="135" t="s">
-        <v>998</v>
+      <c r="F12" s="134" t="s">
+        <v>997</v>
       </c>
       <c r="G12" s="24"/>
     </row>
@@ -17118,8 +17129,8 @@
       <c r="E13" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="135" t="s">
-        <v>998</v>
+      <c r="F13" s="134" t="s">
+        <v>997</v>
       </c>
       <c r="G13" s="24"/>
     </row>
@@ -17139,7 +17150,7 @@
       <c r="E14" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="135" t="s">
+      <c r="F14" s="134" t="s">
         <v>781</v>
       </c>
       <c r="G14" s="24"/>
@@ -17160,7 +17171,7 @@
       <c r="E15" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="135" t="s">
+      <c r="F15" s="134" t="s">
         <v>781</v>
       </c>
       <c r="G15" s="24"/>
@@ -17181,7 +17192,7 @@
       <c r="E16" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="135" t="s">
+      <c r="F16" s="134" t="s">
         <v>781</v>
       </c>
       <c r="G16" s="24"/>
@@ -17202,7 +17213,7 @@
       <c r="E17" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="135" t="s">
+      <c r="F17" s="134" t="s">
         <v>781</v>
       </c>
       <c r="G17" s="24"/>
@@ -17223,7 +17234,7 @@
       <c r="E18" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="135" t="s">
+      <c r="F18" s="134" t="s">
         <v>781</v>
       </c>
       <c r="G18" s="24"/>
@@ -17244,8 +17255,8 @@
   </sheetPr>
   <dimension ref="A1:M220"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17264,18 +17275,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>742</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="K1" s="133" t="s">
-        <v>974</v>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="K1" s="132" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
@@ -17321,7 +17332,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -17336,10 +17347,10 @@
         <v>66</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K4" s="69" t="s">
         <v>845</v>
@@ -17349,7 +17360,7 @@
       <c r="A5" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>259</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -17367,7 +17378,7 @@
         <v>858</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K5" s="70"/>
     </row>
@@ -17375,7 +17386,7 @@
       <c r="A6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>261</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -17392,16 +17403,16 @@
       <c r="H6" s="54" t="s">
         <v>862</v>
       </c>
-      <c r="I6" s="147"/>
+      <c r="I6" s="146"/>
       <c r="K6" s="71" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>263</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -17418,8 +17429,8 @@
       <c r="H7" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="I7" s="109" t="s">
-        <v>966</v>
+      <c r="I7" s="197" t="s">
+        <v>1239</v>
       </c>
       <c r="K7" s="76" t="s">
         <v>865</v>
@@ -17429,7 +17440,7 @@
       <c r="A8" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="131" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -17447,7 +17458,7 @@
         <v>821</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K8" s="72" t="s">
         <v>864</v>
@@ -17475,7 +17486,7 @@
         <v>821</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K9" s="71" t="s">
         <v>866</v>
@@ -17503,7 +17514,7 @@
         <v>821</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K10" s="71"/>
     </row>
@@ -17529,16 +17540,16 @@
         <v>821</v>
       </c>
       <c r="I11" s="68" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K11" s="71" t="s">
         <v>857</v>
       </c>
       <c r="L11" s="95" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M11" s="95" t="s">
         <v>1207</v>
-      </c>
-      <c r="M11" s="95" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17565,15 +17576,15 @@
         <v>818</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K12" s="71" t="s">
-        <v>1205</v>
-      </c>
-      <c r="L12" s="183">
+        <v>1204</v>
+      </c>
+      <c r="L12" s="182">
         <v>43101</v>
       </c>
-      <c r="M12" s="183">
+      <c r="M12" s="182">
         <v>43101</v>
       </c>
     </row>
@@ -17599,15 +17610,15 @@
         <v>42</v>
       </c>
       <c r="I13" s="66" t="s">
-        <v>1005</v>
-      </c>
-      <c r="K13" s="182" t="s">
-        <v>1206</v>
-      </c>
-      <c r="L13" s="184">
+        <v>1004</v>
+      </c>
+      <c r="K13" s="181" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L13" s="183">
         <v>43466</v>
       </c>
-      <c r="M13" s="184">
+      <c r="M13" s="183">
         <v>43466</v>
       </c>
     </row>
@@ -17633,13 +17644,13 @@
         <v>42</v>
       </c>
       <c r="I14" s="58"/>
-      <c r="K14" s="182" t="s">
-        <v>1209</v>
-      </c>
-      <c r="L14" s="183">
+      <c r="K14" s="181" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L14" s="182">
         <v>43466</v>
       </c>
-      <c r="M14" s="183">
+      <c r="M14" s="182">
         <v>43497</v>
       </c>
     </row>
@@ -17666,7 +17677,7 @@
       <c r="H15" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="I15" s="147"/>
+      <c r="I15" s="146"/>
       <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -17692,8 +17703,8 @@
       <c r="H16" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="I16" s="147" t="s">
-        <v>1012</v>
+      <c r="I16" s="146" t="s">
+        <v>1011</v>
       </c>
       <c r="K16" s="71"/>
     </row>
@@ -17720,8 +17731,8 @@
       <c r="H17" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="I17" s="147" t="s">
-        <v>1013</v>
+      <c r="I17" s="146" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17747,8 +17758,8 @@
       <c r="H18" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="I18" s="147" t="s">
-        <v>1211</v>
+      <c r="I18" s="146" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -17773,7 +17784,7 @@
         <v>821</v>
       </c>
       <c r="I19" s="68" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17800,7 +17811,7 @@
         <v>818</v>
       </c>
       <c r="I20" s="66" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17827,7 +17838,7 @@
         <v>818</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17851,8 +17862,8 @@
       <c r="H22" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I22" s="148" t="s">
-        <v>1014</v>
+      <c r="I22" s="147" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17879,7 +17890,7 @@
         <v>818</v>
       </c>
       <c r="I23" s="67" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17905,7 +17916,7 @@
       <c r="H24" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="I24" s="147"/>
+      <c r="I24" s="146"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
@@ -17931,7 +17942,7 @@
         <v>818</v>
       </c>
       <c r="I25" s="66" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18054,7 +18065,7 @@
         <v>821</v>
       </c>
       <c r="I30" s="68" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -18079,7 +18090,7 @@
         <v>821</v>
       </c>
       <c r="I31" s="68" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -18105,8 +18116,8 @@
       <c r="H32" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="I32" s="147" t="s">
-        <v>1022</v>
+      <c r="I32" s="146" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -18131,7 +18142,7 @@
         <v>821</v>
       </c>
       <c r="I33" s="68" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -18156,7 +18167,7 @@
         <v>821</v>
       </c>
       <c r="I34" s="68" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -18181,7 +18192,7 @@
         <v>826</v>
       </c>
       <c r="I35" s="66" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -18207,8 +18218,8 @@
       <c r="H36" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="I36" s="147" t="s">
-        <v>1021</v>
+      <c r="I36" s="146" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -18232,8 +18243,8 @@
       <c r="H37" s="54" t="s">
         <v>821</v>
       </c>
-      <c r="I37" s="147" t="s">
-        <v>1023</v>
+      <c r="I37" s="146" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.3">
@@ -18258,7 +18269,7 @@
         <v>821</v>
       </c>
       <c r="I38" s="68" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18282,8 +18293,8 @@
       <c r="H39" s="54" t="s">
         <v>821</v>
       </c>
-      <c r="I39" s="147" t="s">
-        <v>1024</v>
+      <c r="I39" s="146" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18309,7 +18320,7 @@
       <c r="H40" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="I40" s="147"/>
+      <c r="I40" s="146"/>
     </row>
     <row r="41" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
@@ -18333,7 +18344,7 @@
         <v>821</v>
       </c>
       <c r="I41" s="68" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18451,7 +18462,7 @@
         <v>95</v>
       </c>
       <c r="H46" s="54" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I46" s="66"/>
     </row>
@@ -18474,7 +18485,7 @@
         <v>95</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I47" s="66"/>
     </row>
@@ -18497,7 +18508,7 @@
         <v>95</v>
       </c>
       <c r="H48" s="54" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I48" s="66"/>
     </row>
@@ -18520,7 +18531,7 @@
         <v>95</v>
       </c>
       <c r="H49" s="54" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I49" s="66"/>
     </row>
@@ -18543,7 +18554,7 @@
         <v>95</v>
       </c>
       <c r="H50" s="54" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I50" s="66"/>
     </row>
@@ -18635,9 +18646,9 @@
         <v>95</v>
       </c>
       <c r="H54" s="54" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I54" s="147"/>
+        <v>1025</v>
+      </c>
+      <c r="I54" s="146"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
@@ -18661,7 +18672,7 @@
         <v>946</v>
       </c>
       <c r="I55" s="67" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18714,7 +18725,7 @@
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B58" s="24" t="s">
         <v>359</v>
@@ -18737,7 +18748,7 @@
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>360</v>
@@ -20201,7 +20212,7 @@
         <v>95</v>
       </c>
       <c r="H118" s="54" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I118" s="58"/>
     </row>
@@ -20229,7 +20240,7 @@
       </c>
       <c r="H119" s="54"/>
       <c r="I119" s="66" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -20256,7 +20267,7 @@
       </c>
       <c r="H120" s="54"/>
       <c r="I120" s="66" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -20281,7 +20292,7 @@
         <v>821</v>
       </c>
       <c r="I121" s="66" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -20306,7 +20317,7 @@
         <v>821</v>
       </c>
       <c r="I122" s="66" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -20333,7 +20344,7 @@
       </c>
       <c r="H123" s="54"/>
       <c r="I123" s="66" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20431,7 +20442,7 @@
         <v>827</v>
       </c>
       <c r="I127" s="66" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20485,7 +20496,7 @@
         <v>828</v>
       </c>
       <c r="I129" s="66" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20506,8 +20517,8 @@
       <c r="G130" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H130" s="140" t="s">
-        <v>991</v>
+      <c r="H130" s="139" t="s">
+        <v>990</v>
       </c>
       <c r="I130" s="66"/>
     </row>
@@ -20529,8 +20540,8 @@
       <c r="G131" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H131" s="140" t="s">
-        <v>990</v>
+      <c r="H131" s="139" t="s">
+        <v>989</v>
       </c>
       <c r="I131" s="66"/>
     </row>
@@ -20600,7 +20611,7 @@
       <c r="G134" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H134" s="149" t="s">
+      <c r="H134" s="148" t="s">
         <v>42</v>
       </c>
       <c r="I134" s="66"/>
@@ -20623,7 +20634,7 @@
       <c r="G135" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H135" s="140" t="s">
+      <c r="H135" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I135" s="66"/>
@@ -20646,7 +20657,7 @@
       <c r="G136" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H136" s="140" t="s">
+      <c r="H136" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I136" s="66"/>
@@ -20669,7 +20680,7 @@
       <c r="G137" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H137" s="140" t="s">
+      <c r="H137" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I137" s="66"/>
@@ -20692,7 +20703,7 @@
       <c r="G138" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H138" s="140" t="s">
+      <c r="H138" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I138" s="66"/>
@@ -20715,7 +20726,7 @@
       <c r="G139" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H139" s="140" t="s">
+      <c r="H139" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I139" s="66"/>
@@ -20738,7 +20749,7 @@
       <c r="G140" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H140" s="140" t="s">
+      <c r="H140" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I140" s="66"/>
@@ -20761,7 +20772,7 @@
       <c r="G141" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H141" s="140" t="s">
+      <c r="H141" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I141" s="66"/>
@@ -20784,7 +20795,7 @@
       <c r="G142" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H142" s="140" t="s">
+      <c r="H142" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I142" s="66"/>
@@ -20807,7 +20818,7 @@
       <c r="G143" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H143" s="140" t="s">
+      <c r="H143" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I143" s="66"/>
@@ -20830,7 +20841,7 @@
       <c r="G144" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H144" s="140" t="s">
+      <c r="H144" s="139" t="s">
         <v>781</v>
       </c>
       <c r="I144" s="66"/>
@@ -20856,7 +20867,7 @@
       <c r="H145" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="I145" s="119" t="s">
+      <c r="I145" s="118" t="s">
         <v>942</v>
       </c>
     </row>
@@ -20881,7 +20892,7 @@
       <c r="H146" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="I146" s="119" t="s">
+      <c r="I146" s="118" t="s">
         <v>943</v>
       </c>
     </row>
@@ -20906,7 +20917,7 @@
       <c r="H147" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="I147" s="119" t="s">
+      <c r="I147" s="118" t="s">
         <v>944</v>
       </c>
     </row>
@@ -20931,7 +20942,7 @@
       <c r="H148" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="I148" s="119" t="s">
+      <c r="I148" s="118" t="s">
         <v>945</v>
       </c>
     </row>
@@ -20956,7 +20967,7 @@
       <c r="H149" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="I149" s="119" t="s">
+      <c r="I149" s="118" t="s">
         <v>947</v>
       </c>
     </row>
@@ -22508,10 +22519,10 @@
       <c r="G214" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="H214" s="150" t="s">
+      <c r="H214" s="149" t="s">
         <v>829</v>
       </c>
-      <c r="I214" s="148"/>
+      <c r="I214" s="147"/>
     </row>
     <row r="215" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="48" t="s">
@@ -22534,21 +22545,23 @@
       <c r="H215" s="60" t="s">
         <v>829</v>
       </c>
-      <c r="I215" s="119" t="s">
-        <v>1228</v>
+      <c r="I215" s="118" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="48" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C216" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D216" s="51"/>
+      <c r="D216" s="51">
+        <v>2</v>
+      </c>
       <c r="E216" s="51"/>
       <c r="F216" s="51"/>
       <c r="G216" s="51" t="s">
@@ -22561,15 +22574,17 @@
     </row>
     <row r="217" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="48" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C217" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D217" s="51"/>
+      <c r="D217" s="51">
+        <v>9</v>
+      </c>
       <c r="E217" s="51"/>
       <c r="F217" s="51"/>
       <c r="G217" s="51" t="s">
@@ -22582,15 +22597,17 @@
     </row>
     <row r="218" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="48" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B218" s="48" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C218" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D218" s="51"/>
+      <c r="D218" s="51">
+        <v>2</v>
+      </c>
       <c r="E218" s="51"/>
       <c r="F218" s="51"/>
       <c r="G218" s="51" t="s">
@@ -22603,15 +22620,17 @@
     </row>
     <row r="219" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="48" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B219" s="48" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C219" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D219" s="51"/>
+      <c r="D219" s="51">
+        <v>6</v>
+      </c>
       <c r="E219" s="51"/>
       <c r="F219" s="51"/>
       <c r="G219" s="51" t="s">
@@ -22624,15 +22643,17 @@
     </row>
     <row r="220" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="48" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C220" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D220" s="51"/>
+      <c r="D220" s="51">
+        <v>3</v>
+      </c>
       <c r="E220" s="51"/>
       <c r="F220" s="51"/>
       <c r="G220" s="51" t="s">
@@ -22678,18 +22699,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="185" t="s">
         <v>745</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="K1" s="133" t="s">
-        <v>974</v>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="K1" s="132" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -22735,7 +22756,7 @@
       <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -22761,7 +22782,7 @@
       <c r="A5" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>259</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -22787,7 +22808,7 @@
       <c r="A6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>261</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -22810,7 +22831,7 @@
       <c r="A7" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>619</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -22837,7 +22858,7 @@
       <c r="A8" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="131" t="s">
         <v>621</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -22857,7 +22878,7 @@
         <v>884</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -22943,7 +22964,7 @@
     </row>
     <row r="12" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>628</v>
@@ -22962,8 +22983,8 @@
         <v>95</v>
       </c>
       <c r="H12" s="21"/>
-      <c r="I12" s="151" t="s">
-        <v>1239</v>
+      <c r="I12" s="150" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -22988,7 +23009,7 @@
         <v>887</v>
       </c>
       <c r="I13" s="107" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -23599,7 +23620,7 @@
       <c r="A40" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="131" t="s">
         <v>265</v>
       </c>
       <c r="C40" s="26" t="s">
